--- a/data/Tecate_PhaseII_Topo1m_Soil.xlsx
+++ b/data/Tecate_PhaseII_Topo1m_Soil.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIS\Restoration\Tecate Cypress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelkenny/Documents/IRC/R Code/IRC_Tecate_Restoration/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717FBAF5-EE7B-4783-8092-5D500D0F28A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6076CD-DFAC-6B47-B26B-1B1E6EAD1837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10000" yWindow="2140" windowWidth="23240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tecate_Replant_Site2_3" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tecate_Replant_Site2_3!$A$1:$R$401</definedName>
     <definedName name="_xlnm.Database">Tecate_Replant_Site2_3!$A$1:$R$401</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -67,1209 +78,6 @@
     <t>Aspect1m</t>
   </si>
   <si>
-    <t>2-Seed-1</t>
-  </si>
-  <si>
-    <t>2-Seed-2</t>
-  </si>
-  <si>
-    <t>2-Seed-3</t>
-  </si>
-  <si>
-    <t>2-Seed-4</t>
-  </si>
-  <si>
-    <t>2-Seed-5</t>
-  </si>
-  <si>
-    <t>2-Seed-6</t>
-  </si>
-  <si>
-    <t>2-Seed-7</t>
-  </si>
-  <si>
-    <t>2-Seed-8</t>
-  </si>
-  <si>
-    <t>2-Seed-9</t>
-  </si>
-  <si>
-    <t>2-Seed-10</t>
-  </si>
-  <si>
-    <t>2-Seed-13</t>
-  </si>
-  <si>
-    <t>2-Seed-12</t>
-  </si>
-  <si>
-    <t>2-Seed-11</t>
-  </si>
-  <si>
-    <t>2-Seed-14</t>
-  </si>
-  <si>
-    <t>2-Seed-15</t>
-  </si>
-  <si>
-    <t>2-Seed-16</t>
-  </si>
-  <si>
-    <t>2-Seed-17</t>
-  </si>
-  <si>
-    <t>2-Seed-18</t>
-  </si>
-  <si>
-    <t>2-Seed-19</t>
-  </si>
-  <si>
-    <t>2-Seed-20</t>
-  </si>
-  <si>
-    <t>2-Seed-21</t>
-  </si>
-  <si>
-    <t>2-Seed-23</t>
-  </si>
-  <si>
-    <t>2-Seed-22</t>
-  </si>
-  <si>
-    <t>2-Seed-24</t>
-  </si>
-  <si>
-    <t>2-Seed-25</t>
-  </si>
-  <si>
-    <t>2-Seed-26</t>
-  </si>
-  <si>
-    <t>2-Seed-27</t>
-  </si>
-  <si>
-    <t>2-Seed-28</t>
-  </si>
-  <si>
-    <t>2-Seed-29</t>
-  </si>
-  <si>
-    <t>2-Seed-30</t>
-  </si>
-  <si>
-    <t>2-Seed-31</t>
-  </si>
-  <si>
-    <t>2-Seed-32</t>
-  </si>
-  <si>
-    <t>2-Seed-33</t>
-  </si>
-  <si>
-    <t>2-Seed-34</t>
-  </si>
-  <si>
-    <t>2-Seed-35</t>
-  </si>
-  <si>
-    <t>2-Seed-36</t>
-  </si>
-  <si>
-    <t>2-Seed-37</t>
-  </si>
-  <si>
-    <t>2-Seed-38</t>
-  </si>
-  <si>
-    <t>2-Seed-39</t>
-  </si>
-  <si>
-    <t>2-Seed-40</t>
-  </si>
-  <si>
-    <t>2-Seed-41</t>
-  </si>
-  <si>
-    <t>2-Seed-42</t>
-  </si>
-  <si>
-    <t>2-Seed-43</t>
-  </si>
-  <si>
-    <t>2-Seed-44</t>
-  </si>
-  <si>
-    <t>2-Seed-45</t>
-  </si>
-  <si>
-    <t>2-Seed-46</t>
-  </si>
-  <si>
-    <t>2-Seed-47</t>
-  </si>
-  <si>
-    <t>2-Seed-48</t>
-  </si>
-  <si>
-    <t>2-Seed-49</t>
-  </si>
-  <si>
-    <t>2-Seed-50</t>
-  </si>
-  <si>
-    <t>2-Seed-68</t>
-  </si>
-  <si>
-    <t>2-Seed-51</t>
-  </si>
-  <si>
-    <t>2-Seed-52</t>
-  </si>
-  <si>
-    <t>2-Seed-53</t>
-  </si>
-  <si>
-    <t>2-Seed-54</t>
-  </si>
-  <si>
-    <t>2-Seed-55</t>
-  </si>
-  <si>
-    <t>2-Seed-56</t>
-  </si>
-  <si>
-    <t>2-Seed-57</t>
-  </si>
-  <si>
-    <t>2-Seed-58</t>
-  </si>
-  <si>
-    <t>2-Seed-59</t>
-  </si>
-  <si>
-    <t>2-Seed-60</t>
-  </si>
-  <si>
-    <t>2-Seed-61</t>
-  </si>
-  <si>
-    <t>2-Seed-62</t>
-  </si>
-  <si>
-    <t>2-Seed-63</t>
-  </si>
-  <si>
-    <t>2-Seed-64</t>
-  </si>
-  <si>
-    <t>2-Seed-92</t>
-  </si>
-  <si>
-    <t>2-Seed-91</t>
-  </si>
-  <si>
-    <t>2-Seed-65</t>
-  </si>
-  <si>
-    <t>2-Seed-90</t>
-  </si>
-  <si>
-    <t>2-Seed-66</t>
-  </si>
-  <si>
-    <t>2-Seed-89</t>
-  </si>
-  <si>
-    <t>2-Seed-67</t>
-  </si>
-  <si>
-    <t>2-Seed-69</t>
-  </si>
-  <si>
-    <t>2-Seed-70</t>
-  </si>
-  <si>
-    <t>2-Seed-97</t>
-  </si>
-  <si>
-    <t>2-Seed-98</t>
-  </si>
-  <si>
-    <t>2-Seed-94</t>
-  </si>
-  <si>
-    <t>2-Seed-95</t>
-  </si>
-  <si>
-    <t>2-Seed-96</t>
-  </si>
-  <si>
-    <t>2-Seed-99</t>
-  </si>
-  <si>
-    <t>2-Seed-93</t>
-  </si>
-  <si>
-    <t>2-Seed-100</t>
-  </si>
-  <si>
-    <t>2-Seed-83</t>
-  </si>
-  <si>
-    <t>2-Seed-84</t>
-  </si>
-  <si>
-    <t>2-Seed-85</t>
-  </si>
-  <si>
-    <t>2-Seed-86</t>
-  </si>
-  <si>
-    <t>2-Seed-87</t>
-  </si>
-  <si>
-    <t>2-Seed-88</t>
-  </si>
-  <si>
-    <t>2-Seed-71</t>
-  </si>
-  <si>
-    <t>2-Seed-82</t>
-  </si>
-  <si>
-    <t>2-Seed-81</t>
-  </si>
-  <si>
-    <t>2-Seed-72</t>
-  </si>
-  <si>
-    <t>2-Seed-73</t>
-  </si>
-  <si>
-    <t>2-Seed-74</t>
-  </si>
-  <si>
-    <t>2-Seed-75</t>
-  </si>
-  <si>
-    <t>2-Seed-76</t>
-  </si>
-  <si>
-    <t>2-Seed-77</t>
-  </si>
-  <si>
-    <t>2-Seed-78</t>
-  </si>
-  <si>
-    <t>2-Seed-79</t>
-  </si>
-  <si>
-    <t>2-Seed-80</t>
-  </si>
-  <si>
-    <t>2-Sdling-90</t>
-  </si>
-  <si>
-    <t>2-Sdling-89</t>
-  </si>
-  <si>
-    <t>2-Sdling-91</t>
-  </si>
-  <si>
-    <t>2-Sdling-92</t>
-  </si>
-  <si>
-    <t>2-Sdling-93</t>
-  </si>
-  <si>
-    <t>2-Sdling-94</t>
-  </si>
-  <si>
-    <t>2-Sdling-84</t>
-  </si>
-  <si>
-    <t>2-Sdling-85</t>
-  </si>
-  <si>
-    <t>2-Sdling-77</t>
-  </si>
-  <si>
-    <t>2-Sdling-86</t>
-  </si>
-  <si>
-    <t>2-Sdling-76</t>
-  </si>
-  <si>
-    <t>2-Sdling-75</t>
-  </si>
-  <si>
-    <t>2-Sdling-71</t>
-  </si>
-  <si>
-    <t>2-Sdling-87</t>
-  </si>
-  <si>
-    <t>2-Sdling-72</t>
-  </si>
-  <si>
-    <t>2-Sdling-74</t>
-  </si>
-  <si>
-    <t>2-Sdling-73</t>
-  </si>
-  <si>
-    <t>2-Sdling-88</t>
-  </si>
-  <si>
-    <t>2-Sdling-78</t>
-  </si>
-  <si>
-    <t>2-Sdling-79</t>
-  </si>
-  <si>
-    <t>2-Sdling-83</t>
-  </si>
-  <si>
-    <t>2-Sdling-95</t>
-  </si>
-  <si>
-    <t>2-Sdling-96</t>
-  </si>
-  <si>
-    <t>2-Sdling-97</t>
-  </si>
-  <si>
-    <t>2-Sdling-98</t>
-  </si>
-  <si>
-    <t>2-Sdling-99</t>
-  </si>
-  <si>
-    <t>2-Sdling-100</t>
-  </si>
-  <si>
-    <t>2-Sdling-81</t>
-  </si>
-  <si>
-    <t>2-Sdling-80</t>
-  </si>
-  <si>
-    <t>2-Sdling-82</t>
-  </si>
-  <si>
-    <t>2-Sdling-68</t>
-  </si>
-  <si>
-    <t>2-Sdling-67</t>
-  </si>
-  <si>
-    <t>2-Sdling-59</t>
-  </si>
-  <si>
-    <t>2-Sdling-66</t>
-  </si>
-  <si>
-    <t>2-Sdling-60</t>
-  </si>
-  <si>
-    <t>2-Sdling-65</t>
-  </si>
-  <si>
-    <t>2-Sdling-64</t>
-  </si>
-  <si>
-    <t>2-Sdling-63</t>
-  </si>
-  <si>
-    <t>2-Sdling-62</t>
-  </si>
-  <si>
-    <t>2-Sdling-61</t>
-  </si>
-  <si>
-    <t>2-Sdling-39</t>
-  </si>
-  <si>
-    <t>2-Sdling-58</t>
-  </si>
-  <si>
-    <t>2-Sdling-57</t>
-  </si>
-  <si>
-    <t>2-Sdling-56</t>
-  </si>
-  <si>
-    <t>2-Sdling-70</t>
-  </si>
-  <si>
-    <t>2-Sdling-55</t>
-  </si>
-  <si>
-    <t>2-Sdling-54</t>
-  </si>
-  <si>
-    <t>2-Sdling-53</t>
-  </si>
-  <si>
-    <t>2-Sdling-52</t>
-  </si>
-  <si>
-    <t>2-Sdling-51</t>
-  </si>
-  <si>
-    <t>2-Sdling-50</t>
-  </si>
-  <si>
-    <t>2-Sdling-49</t>
-  </si>
-  <si>
-    <t>2-Sdling-48</t>
-  </si>
-  <si>
-    <t>2-Sdling-47</t>
-  </si>
-  <si>
-    <t>2-Sdling-46</t>
-  </si>
-  <si>
-    <t>2-Sdling-45</t>
-  </si>
-  <si>
-    <t>2-Sdling-44</t>
-  </si>
-  <si>
-    <t>2-Sdling-43</t>
-  </si>
-  <si>
-    <t>2-Sdling-42</t>
-  </si>
-  <si>
-    <t>2-Sdling-41</t>
-  </si>
-  <si>
-    <t>2-Sdling-40</t>
-  </si>
-  <si>
-    <t>2-Sdling-37</t>
-  </si>
-  <si>
-    <t>2-Sdling-69</t>
-  </si>
-  <si>
-    <t>2-Sdling-38</t>
-  </si>
-  <si>
-    <t>2-Sdling-36</t>
-  </si>
-  <si>
-    <t>2-Sdling-35</t>
-  </si>
-  <si>
-    <t>2-Sdling-34</t>
-  </si>
-  <si>
-    <t>2-Sdling-33</t>
-  </si>
-  <si>
-    <t>2-Sdling-17</t>
-  </si>
-  <si>
-    <t>2-Sdling-32</t>
-  </si>
-  <si>
-    <t>2-Sdling-31</t>
-  </si>
-  <si>
-    <t>2-Sdling-30</t>
-  </si>
-  <si>
-    <t>2-Sdling-29</t>
-  </si>
-  <si>
-    <t>2-Sdling-28</t>
-  </si>
-  <si>
-    <t>2-Sdling-27</t>
-  </si>
-  <si>
-    <t>2-Sdling-26</t>
-  </si>
-  <si>
-    <t>2-Sdling-25</t>
-  </si>
-  <si>
-    <t>2-Sdling-24</t>
-  </si>
-  <si>
-    <t>2-Sdling-23</t>
-  </si>
-  <si>
-    <t>2-Sdling-22</t>
-  </si>
-  <si>
-    <t>2-Sdling-21</t>
-  </si>
-  <si>
-    <t>3-Sdling-16</t>
-  </si>
-  <si>
-    <t>3-Seed-18</t>
-  </si>
-  <si>
-    <t>3-Sdling-18</t>
-  </si>
-  <si>
-    <t>3-Sdling-17</t>
-  </si>
-  <si>
-    <t>3-Seed-19</t>
-  </si>
-  <si>
-    <t>3-Seed-20</t>
-  </si>
-  <si>
-    <t>3-Sdling-19</t>
-  </si>
-  <si>
-    <t>3-Sdling-20</t>
-  </si>
-  <si>
-    <t>3-Seed-21</t>
-  </si>
-  <si>
-    <t>3-Seed-22</t>
-  </si>
-  <si>
-    <t>3-Sdling-21</t>
-  </si>
-  <si>
-    <t>3-Sdling-22</t>
-  </si>
-  <si>
-    <t>3-Seed-23</t>
-  </si>
-  <si>
-    <t>3-Sdling-23</t>
-  </si>
-  <si>
-    <t>3-Seed-24</t>
-  </si>
-  <si>
-    <t>3-Sdling-24</t>
-  </si>
-  <si>
-    <t>3-Sdling-25</t>
-  </si>
-  <si>
-    <t>3-Seed-25</t>
-  </si>
-  <si>
-    <t>3-Seed-1</t>
-  </si>
-  <si>
-    <t>3-Seed-2</t>
-  </si>
-  <si>
-    <t>3-Seed-3</t>
-  </si>
-  <si>
-    <t>3-Seed-4</t>
-  </si>
-  <si>
-    <t>3-Seed-5</t>
-  </si>
-  <si>
-    <t>3-Seed-6</t>
-  </si>
-  <si>
-    <t>3-Seed-7</t>
-  </si>
-  <si>
-    <t>3-Seed-8</t>
-  </si>
-  <si>
-    <t>3-Seed-9</t>
-  </si>
-  <si>
-    <t>3-Seed-10</t>
-  </si>
-  <si>
-    <t>3-Seed-11</t>
-  </si>
-  <si>
-    <t>3-Seed-12</t>
-  </si>
-  <si>
-    <t>3-Seed-13</t>
-  </si>
-  <si>
-    <t>3-Seed-14</t>
-  </si>
-  <si>
-    <t>3-Seed-15</t>
-  </si>
-  <si>
-    <t>3-Seed-16</t>
-  </si>
-  <si>
-    <t>3-Seed-17</t>
-  </si>
-  <si>
-    <t>3-Sdling-1</t>
-  </si>
-  <si>
-    <t>3-Sdling-2</t>
-  </si>
-  <si>
-    <t>3-Sdling-3</t>
-  </si>
-  <si>
-    <t>3-Sdling-4</t>
-  </si>
-  <si>
-    <t>3-Sdling-5</t>
-  </si>
-  <si>
-    <t>3-Sdling-6</t>
-  </si>
-  <si>
-    <t>3-Sdling-7</t>
-  </si>
-  <si>
-    <t>3-Sdling-8</t>
-  </si>
-  <si>
-    <t>3-Sdling-9</t>
-  </si>
-  <si>
-    <t>3-Sdling-10</t>
-  </si>
-  <si>
-    <t>3-Sdling-11</t>
-  </si>
-  <si>
-    <t>3-Sdling-12</t>
-  </si>
-  <si>
-    <t>3-Sdling-13</t>
-  </si>
-  <si>
-    <t>3-Sdling-14</t>
-  </si>
-  <si>
-    <t>3-Sdling-15</t>
-  </si>
-  <si>
-    <t>3-Seed-26</t>
-  </si>
-  <si>
-    <t>3-Sdling-26</t>
-  </si>
-  <si>
-    <t>3-Sdling-27</t>
-  </si>
-  <si>
-    <t>3-Seed-27</t>
-  </si>
-  <si>
-    <t>3-Seed-28</t>
-  </si>
-  <si>
-    <t>3-Sdling-28</t>
-  </si>
-  <si>
-    <t>3-Sdling-29</t>
-  </si>
-  <si>
-    <t>3-Seed-29</t>
-  </si>
-  <si>
-    <t>3-Sdling-30</t>
-  </si>
-  <si>
-    <t>3-Seed-30</t>
-  </si>
-  <si>
-    <t>3-Seed-31</t>
-  </si>
-  <si>
-    <t>3-Sdling-31</t>
-  </si>
-  <si>
-    <t>3-Seed-32</t>
-  </si>
-  <si>
-    <t>3-Sdling-32</t>
-  </si>
-  <si>
-    <t>3-Sdling-33</t>
-  </si>
-  <si>
-    <t>3-Seed-33</t>
-  </si>
-  <si>
-    <t>3-Seed-34</t>
-  </si>
-  <si>
-    <t>3-Sdling-34</t>
-  </si>
-  <si>
-    <t>3-Seed-35</t>
-  </si>
-  <si>
-    <t>3-Sdling-35</t>
-  </si>
-  <si>
-    <t>3-Sdling-36</t>
-  </si>
-  <si>
-    <t>3-Seed-36</t>
-  </si>
-  <si>
-    <t>3-Seed-37</t>
-  </si>
-  <si>
-    <t>3-Sdling-37</t>
-  </si>
-  <si>
-    <t>3-Seed-38</t>
-  </si>
-  <si>
-    <t>3-Sdling-38</t>
-  </si>
-  <si>
-    <t>3-Sdling-39</t>
-  </si>
-  <si>
-    <t>3-Seed-39</t>
-  </si>
-  <si>
-    <t>3-Sdling-40</t>
-  </si>
-  <si>
-    <t>3-Seed-40</t>
-  </si>
-  <si>
-    <t>3-Sdling-41</t>
-  </si>
-  <si>
-    <t>3-Seed-41</t>
-  </si>
-  <si>
-    <t>3-Seed-42</t>
-  </si>
-  <si>
-    <t>3-Sdling-42</t>
-  </si>
-  <si>
-    <t>3-Sdling-43</t>
-  </si>
-  <si>
-    <t>3-Seed-43</t>
-  </si>
-  <si>
-    <t>3-Sdling-44</t>
-  </si>
-  <si>
-    <t>3-Seed-44</t>
-  </si>
-  <si>
-    <t>3-Seed-45</t>
-  </si>
-  <si>
-    <t>3-Sdling-45</t>
-  </si>
-  <si>
-    <t>3-Seed-46</t>
-  </si>
-  <si>
-    <t>3-Sdling-46</t>
-  </si>
-  <si>
-    <t>3-Sdling-47</t>
-  </si>
-  <si>
-    <t>3-Seed-47</t>
-  </si>
-  <si>
-    <t>3-Sdling-48</t>
-  </si>
-  <si>
-    <t>3-Seed-48</t>
-  </si>
-  <si>
-    <t>3-Sdling-49</t>
-  </si>
-  <si>
-    <t>3-Seed-49</t>
-  </si>
-  <si>
-    <t>3-Sdling-50</t>
-  </si>
-  <si>
-    <t>3-Seed-50</t>
-  </si>
-  <si>
-    <t>2-Sdling-1</t>
-  </si>
-  <si>
-    <t>2-Sdling-2</t>
-  </si>
-  <si>
-    <t>2-Sdling-3</t>
-  </si>
-  <si>
-    <t>2-Sdling-4</t>
-  </si>
-  <si>
-    <t>2-Sdling-5</t>
-  </si>
-  <si>
-    <t>2-Sdling-6</t>
-  </si>
-  <si>
-    <t>2-Sdling-7</t>
-  </si>
-  <si>
-    <t>2-Sdling-19</t>
-  </si>
-  <si>
-    <t>2-Sdling-20</t>
-  </si>
-  <si>
-    <t>2-Sdling-18</t>
-  </si>
-  <si>
-    <t>2-Sdling-16</t>
-  </si>
-  <si>
-    <t>2-Sdling-15</t>
-  </si>
-  <si>
-    <t>2-Sdling-14</t>
-  </si>
-  <si>
-    <t>2-Sdling-13</t>
-  </si>
-  <si>
-    <t>2-Sdling-12</t>
-  </si>
-  <si>
-    <t>2-Sdling-11</t>
-  </si>
-  <si>
-    <t>2-Sdling-10</t>
-  </si>
-  <si>
-    <t>2-Sdling-9</t>
-  </si>
-  <si>
-    <t>2-Sdling-8</t>
-  </si>
-  <si>
-    <t>3-Seed-63</t>
-  </si>
-  <si>
-    <t>3-Seed-64</t>
-  </si>
-  <si>
-    <t>3-Seed-65</t>
-  </si>
-  <si>
-    <t>3-Seed-66</t>
-  </si>
-  <si>
-    <t>3-Seed-67</t>
-  </si>
-  <si>
-    <t>3-Sdling-67</t>
-  </si>
-  <si>
-    <t>3-Sdling-66</t>
-  </si>
-  <si>
-    <t>3-Sdling-65</t>
-  </si>
-  <si>
-    <t>3-Sdling-64</t>
-  </si>
-  <si>
-    <t>3-Sdling-63</t>
-  </si>
-  <si>
-    <t>3-Sdling-62</t>
-  </si>
-  <si>
-    <t>3-Seed-62</t>
-  </si>
-  <si>
-    <t>3-Sdling-61</t>
-  </si>
-  <si>
-    <t>3-Seed-60</t>
-  </si>
-  <si>
-    <t>3-Sdling-59</t>
-  </si>
-  <si>
-    <t>3-Seed-59</t>
-  </si>
-  <si>
-    <t>3-Seed-61</t>
-  </si>
-  <si>
-    <t>3-Sdling-60</t>
-  </si>
-  <si>
-    <t>3-Sdling-58</t>
-  </si>
-  <si>
-    <t>3-Seed-58</t>
-  </si>
-  <si>
-    <t>3-Seed-57</t>
-  </si>
-  <si>
-    <t>3-Sdling-57</t>
-  </si>
-  <si>
-    <t>3-Sdling-52</t>
-  </si>
-  <si>
-    <t>3-Seed-51</t>
-  </si>
-  <si>
-    <t>3-Sdling-51</t>
-  </si>
-  <si>
-    <t>3-Seed-52</t>
-  </si>
-  <si>
-    <t>3-Sdling-53</t>
-  </si>
-  <si>
-    <t>3-Seed-53</t>
-  </si>
-  <si>
-    <t>3-Seed-54</t>
-  </si>
-  <si>
-    <t>3-Sdling-54</t>
-  </si>
-  <si>
-    <t>3-Seed-55</t>
-  </si>
-  <si>
-    <t>3-Sdling-55</t>
-  </si>
-  <si>
-    <t>3-Sdling-56</t>
-  </si>
-  <si>
-    <t>3-Seed-56</t>
-  </si>
-  <si>
-    <t>3-Seed-68</t>
-  </si>
-  <si>
-    <t>3-Sdling-69</t>
-  </si>
-  <si>
-    <t>3-Seed-69</t>
-  </si>
-  <si>
-    <t>3-Sdling-68</t>
-  </si>
-  <si>
-    <t>3-Seed-70</t>
-  </si>
-  <si>
-    <t>3-Sdling-70</t>
-  </si>
-  <si>
-    <t>3-Seed-71</t>
-  </si>
-  <si>
-    <t>3-Sdling-71</t>
-  </si>
-  <si>
-    <t>3-Seed-72</t>
-  </si>
-  <si>
-    <t>3-Seed-73</t>
-  </si>
-  <si>
-    <t>3-Sdling-72</t>
-  </si>
-  <si>
-    <t>3-Sdling-73</t>
-  </si>
-  <si>
-    <t>3-Seed-74</t>
-  </si>
-  <si>
-    <t>3-Sdling-74</t>
-  </si>
-  <si>
-    <t>3-Sdling-75</t>
-  </si>
-  <si>
-    <t>3-Seed-75</t>
-  </si>
-  <si>
-    <t>3-Sdling-79</t>
-  </si>
-  <si>
-    <t>3-Seed-76</t>
-  </si>
-  <si>
-    <t>3-Sdling-76</t>
-  </si>
-  <si>
-    <t>3-Sdling-77</t>
-  </si>
-  <si>
-    <t>3-Seed-77</t>
-  </si>
-  <si>
-    <t>3-Seed-78</t>
-  </si>
-  <si>
-    <t>3-Sdling-78</t>
-  </si>
-  <si>
-    <t>3-Seed-79</t>
-  </si>
-  <si>
-    <t>3-Seed-80</t>
-  </si>
-  <si>
-    <t>3-Sdling-80</t>
-  </si>
-  <si>
-    <t>3-Sdling-81</t>
-  </si>
-  <si>
-    <t>3-Seed-81</t>
-  </si>
-  <si>
-    <t>3-Sdling-82</t>
-  </si>
-  <si>
-    <t>3-Seed-83</t>
-  </si>
-  <si>
-    <t>3-Seed-82</t>
-  </si>
-  <si>
-    <t>3-Sdling-83</t>
-  </si>
-  <si>
-    <t>3-Seed-84</t>
-  </si>
-  <si>
-    <t>3-Seed-85</t>
-  </si>
-  <si>
-    <t>3-Sdling-84</t>
-  </si>
-  <si>
-    <t>3-Sdling-85</t>
-  </si>
-  <si>
-    <t>3-Seed-86</t>
-  </si>
-  <si>
-    <t>3-Sdling-86</t>
-  </si>
-  <si>
-    <t>3-Sdling-87</t>
-  </si>
-  <si>
-    <t>3-Seed-87</t>
-  </si>
-  <si>
-    <t>3-Seed-88</t>
-  </si>
-  <si>
-    <t>3-Sdling-88</t>
-  </si>
-  <si>
-    <t>3-Sdling-89</t>
-  </si>
-  <si>
-    <t>3-Seed-89</t>
-  </si>
-  <si>
-    <t>3-Sdling-90</t>
-  </si>
-  <si>
-    <t>3-Seed-90</t>
-  </si>
-  <si>
-    <t>3-Seed-91</t>
-  </si>
-  <si>
-    <t>3-Sdling-91</t>
-  </si>
-  <si>
-    <t>3-Seed-92</t>
-  </si>
-  <si>
-    <t>3-Sdling-92</t>
-  </si>
-  <si>
-    <t>3-Seed-93</t>
-  </si>
-  <si>
-    <t>3-Sdling-93</t>
-  </si>
-  <si>
-    <t>3-Sdling-97</t>
-  </si>
-  <si>
-    <t>3-Seed-97</t>
-  </si>
-  <si>
-    <t>3-Seed-98</t>
-  </si>
-  <si>
-    <t>3-Sdling-98</t>
-  </si>
-  <si>
-    <t>3-Seed-94</t>
-  </si>
-  <si>
-    <t>3-Sdling-94</t>
-  </si>
-  <si>
-    <t>3-Seed-95</t>
-  </si>
-  <si>
-    <t>3-Sdling-96</t>
-  </si>
-  <si>
-    <t>3-Seed-96</t>
-  </si>
-  <si>
-    <t>3-Sdling-95</t>
-  </si>
-  <si>
-    <t>3-Sdling-99</t>
-  </si>
-  <si>
-    <t>3-Seed-99</t>
-  </si>
-  <si>
-    <t>3-Sdling-100</t>
-  </si>
-  <si>
-    <t>3-Seed-100</t>
-  </si>
-  <si>
-    <t>Elevation_1m</t>
-  </si>
-  <si>
     <t>Curvature</t>
   </si>
   <si>
@@ -1277,6 +85,1209 @@
   </si>
   <si>
     <t>Curvature_Planform</t>
+  </si>
+  <si>
+    <t>2-sdling-90</t>
+  </si>
+  <si>
+    <t>2-sdling-89</t>
+  </si>
+  <si>
+    <t>2-sdling-91</t>
+  </si>
+  <si>
+    <t>2-sdling-92</t>
+  </si>
+  <si>
+    <t>2-sdling-93</t>
+  </si>
+  <si>
+    <t>2-sdling-94</t>
+  </si>
+  <si>
+    <t>2-sdling-84</t>
+  </si>
+  <si>
+    <t>2-sdling-85</t>
+  </si>
+  <si>
+    <t>2-sdling-77</t>
+  </si>
+  <si>
+    <t>2-sdling-86</t>
+  </si>
+  <si>
+    <t>2-sdling-76</t>
+  </si>
+  <si>
+    <t>2-sdling-75</t>
+  </si>
+  <si>
+    <t>2-sdling-71</t>
+  </si>
+  <si>
+    <t>2-sdling-87</t>
+  </si>
+  <si>
+    <t>2-sdling-72</t>
+  </si>
+  <si>
+    <t>2-sdling-74</t>
+  </si>
+  <si>
+    <t>2-sdling-73</t>
+  </si>
+  <si>
+    <t>2-sdling-88</t>
+  </si>
+  <si>
+    <t>2-sdling-78</t>
+  </si>
+  <si>
+    <t>2-sdling-79</t>
+  </si>
+  <si>
+    <t>2-sdling-83</t>
+  </si>
+  <si>
+    <t>2-sdling-95</t>
+  </si>
+  <si>
+    <t>2-sdling-96</t>
+  </si>
+  <si>
+    <t>2-sdling-97</t>
+  </si>
+  <si>
+    <t>2-sdling-98</t>
+  </si>
+  <si>
+    <t>2-sdling-99</t>
+  </si>
+  <si>
+    <t>2-sdling-100</t>
+  </si>
+  <si>
+    <t>2-sdling-81</t>
+  </si>
+  <si>
+    <t>2-sdling-80</t>
+  </si>
+  <si>
+    <t>2-sdling-82</t>
+  </si>
+  <si>
+    <t>2-sdling-68</t>
+  </si>
+  <si>
+    <t>2-sdling-67</t>
+  </si>
+  <si>
+    <t>2-sdling-59</t>
+  </si>
+  <si>
+    <t>2-sdling-66</t>
+  </si>
+  <si>
+    <t>2-sdling-60</t>
+  </si>
+  <si>
+    <t>2-sdling-65</t>
+  </si>
+  <si>
+    <t>2-sdling-64</t>
+  </si>
+  <si>
+    <t>2-sdling-63</t>
+  </si>
+  <si>
+    <t>2-sdling-62</t>
+  </si>
+  <si>
+    <t>2-sdling-61</t>
+  </si>
+  <si>
+    <t>2-sdling-39</t>
+  </si>
+  <si>
+    <t>2-sdling-58</t>
+  </si>
+  <si>
+    <t>2-sdling-57</t>
+  </si>
+  <si>
+    <t>2-sdling-56</t>
+  </si>
+  <si>
+    <t>2-sdling-70</t>
+  </si>
+  <si>
+    <t>2-sdling-55</t>
+  </si>
+  <si>
+    <t>2-sdling-54</t>
+  </si>
+  <si>
+    <t>2-sdling-53</t>
+  </si>
+  <si>
+    <t>2-sdling-52</t>
+  </si>
+  <si>
+    <t>2-sdling-51</t>
+  </si>
+  <si>
+    <t>2-sdling-50</t>
+  </si>
+  <si>
+    <t>2-sdling-49</t>
+  </si>
+  <si>
+    <t>2-sdling-48</t>
+  </si>
+  <si>
+    <t>2-sdling-47</t>
+  </si>
+  <si>
+    <t>2-sdling-46</t>
+  </si>
+  <si>
+    <t>2-sdling-45</t>
+  </si>
+  <si>
+    <t>2-sdling-44</t>
+  </si>
+  <si>
+    <t>2-sdling-43</t>
+  </si>
+  <si>
+    <t>2-sdling-42</t>
+  </si>
+  <si>
+    <t>2-sdling-41</t>
+  </si>
+  <si>
+    <t>2-sdling-40</t>
+  </si>
+  <si>
+    <t>2-sdling-37</t>
+  </si>
+  <si>
+    <t>2-sdling-69</t>
+  </si>
+  <si>
+    <t>2-sdling-38</t>
+  </si>
+  <si>
+    <t>2-sdling-36</t>
+  </si>
+  <si>
+    <t>2-sdling-35</t>
+  </si>
+  <si>
+    <t>2-sdling-34</t>
+  </si>
+  <si>
+    <t>2-sdling-33</t>
+  </si>
+  <si>
+    <t>2-sdling-17</t>
+  </si>
+  <si>
+    <t>2-sdling-32</t>
+  </si>
+  <si>
+    <t>2-sdling-31</t>
+  </si>
+  <si>
+    <t>2-sdling-30</t>
+  </si>
+  <si>
+    <t>2-sdling-29</t>
+  </si>
+  <si>
+    <t>2-sdling-28</t>
+  </si>
+  <si>
+    <t>2-sdling-27</t>
+  </si>
+  <si>
+    <t>2-sdling-26</t>
+  </si>
+  <si>
+    <t>2-sdling-25</t>
+  </si>
+  <si>
+    <t>2-sdling-24</t>
+  </si>
+  <si>
+    <t>2-sdling-23</t>
+  </si>
+  <si>
+    <t>2-sdling-22</t>
+  </si>
+  <si>
+    <t>2-sdling-21</t>
+  </si>
+  <si>
+    <t>3-sdling-16</t>
+  </si>
+  <si>
+    <t>3-sdling-18</t>
+  </si>
+  <si>
+    <t>3-sdling-17</t>
+  </si>
+  <si>
+    <t>3-sdling-19</t>
+  </si>
+  <si>
+    <t>3-sdling-20</t>
+  </si>
+  <si>
+    <t>3-sdling-21</t>
+  </si>
+  <si>
+    <t>3-sdling-22</t>
+  </si>
+  <si>
+    <t>3-sdling-23</t>
+  </si>
+  <si>
+    <t>3-sdling-24</t>
+  </si>
+  <si>
+    <t>3-sdling-25</t>
+  </si>
+  <si>
+    <t>3-sdling-1</t>
+  </si>
+  <si>
+    <t>3-sdling-2</t>
+  </si>
+  <si>
+    <t>3-sdling-3</t>
+  </si>
+  <si>
+    <t>3-sdling-4</t>
+  </si>
+  <si>
+    <t>3-sdling-5</t>
+  </si>
+  <si>
+    <t>3-sdling-6</t>
+  </si>
+  <si>
+    <t>3-sdling-7</t>
+  </si>
+  <si>
+    <t>3-sdling-8</t>
+  </si>
+  <si>
+    <t>3-sdling-9</t>
+  </si>
+  <si>
+    <t>3-sdling-10</t>
+  </si>
+  <si>
+    <t>3-sdling-11</t>
+  </si>
+  <si>
+    <t>3-sdling-12</t>
+  </si>
+  <si>
+    <t>3-sdling-13</t>
+  </si>
+  <si>
+    <t>3-sdling-14</t>
+  </si>
+  <si>
+    <t>3-sdling-15</t>
+  </si>
+  <si>
+    <t>3-sdling-26</t>
+  </si>
+  <si>
+    <t>3-sdling-27</t>
+  </si>
+  <si>
+    <t>3-sdling-28</t>
+  </si>
+  <si>
+    <t>3-sdling-29</t>
+  </si>
+  <si>
+    <t>3-sdling-30</t>
+  </si>
+  <si>
+    <t>3-sdling-31</t>
+  </si>
+  <si>
+    <t>3-sdling-32</t>
+  </si>
+  <si>
+    <t>3-sdling-33</t>
+  </si>
+  <si>
+    <t>3-sdling-34</t>
+  </si>
+  <si>
+    <t>3-sdling-35</t>
+  </si>
+  <si>
+    <t>3-sdling-36</t>
+  </si>
+  <si>
+    <t>3-sdling-37</t>
+  </si>
+  <si>
+    <t>3-sdling-38</t>
+  </si>
+  <si>
+    <t>3-sdling-39</t>
+  </si>
+  <si>
+    <t>3-sdling-40</t>
+  </si>
+  <si>
+    <t>3-sdling-41</t>
+  </si>
+  <si>
+    <t>3-sdling-42</t>
+  </si>
+  <si>
+    <t>3-sdling-43</t>
+  </si>
+  <si>
+    <t>3-sdling-44</t>
+  </si>
+  <si>
+    <t>3-sdling-45</t>
+  </si>
+  <si>
+    <t>3-sdling-46</t>
+  </si>
+  <si>
+    <t>3-sdling-47</t>
+  </si>
+  <si>
+    <t>3-sdling-48</t>
+  </si>
+  <si>
+    <t>3-sdling-49</t>
+  </si>
+  <si>
+    <t>3-sdling-50</t>
+  </si>
+  <si>
+    <t>2-sdling-1</t>
+  </si>
+  <si>
+    <t>2-sdling-2</t>
+  </si>
+  <si>
+    <t>2-sdling-3</t>
+  </si>
+  <si>
+    <t>2-sdling-4</t>
+  </si>
+  <si>
+    <t>2-sdling-5</t>
+  </si>
+  <si>
+    <t>2-sdling-6</t>
+  </si>
+  <si>
+    <t>2-sdling-7</t>
+  </si>
+  <si>
+    <t>2-sdling-19</t>
+  </si>
+  <si>
+    <t>2-sdling-20</t>
+  </si>
+  <si>
+    <t>2-sdling-18</t>
+  </si>
+  <si>
+    <t>2-sdling-16</t>
+  </si>
+  <si>
+    <t>2-sdling-15</t>
+  </si>
+  <si>
+    <t>2-sdling-14</t>
+  </si>
+  <si>
+    <t>2-sdling-13</t>
+  </si>
+  <si>
+    <t>2-sdling-12</t>
+  </si>
+  <si>
+    <t>2-sdling-11</t>
+  </si>
+  <si>
+    <t>2-sdling-10</t>
+  </si>
+  <si>
+    <t>2-sdling-9</t>
+  </si>
+  <si>
+    <t>2-sdling-8</t>
+  </si>
+  <si>
+    <t>3-sdling-67</t>
+  </si>
+  <si>
+    <t>3-sdling-66</t>
+  </si>
+  <si>
+    <t>3-sdling-65</t>
+  </si>
+  <si>
+    <t>3-sdling-64</t>
+  </si>
+  <si>
+    <t>3-sdling-63</t>
+  </si>
+  <si>
+    <t>3-sdling-62</t>
+  </si>
+  <si>
+    <t>3-sdling-61</t>
+  </si>
+  <si>
+    <t>3-sdling-59</t>
+  </si>
+  <si>
+    <t>3-sdling-60</t>
+  </si>
+  <si>
+    <t>3-sdling-58</t>
+  </si>
+  <si>
+    <t>3-sdling-57</t>
+  </si>
+  <si>
+    <t>3-sdling-52</t>
+  </si>
+  <si>
+    <t>3-sdling-51</t>
+  </si>
+  <si>
+    <t>3-sdling-53</t>
+  </si>
+  <si>
+    <t>3-sdling-54</t>
+  </si>
+  <si>
+    <t>3-sdling-55</t>
+  </si>
+  <si>
+    <t>3-sdling-56</t>
+  </si>
+  <si>
+    <t>3-sdling-69</t>
+  </si>
+  <si>
+    <t>3-sdling-68</t>
+  </si>
+  <si>
+    <t>3-sdling-70</t>
+  </si>
+  <si>
+    <t>3-sdling-71</t>
+  </si>
+  <si>
+    <t>3-sdling-72</t>
+  </si>
+  <si>
+    <t>3-sdling-73</t>
+  </si>
+  <si>
+    <t>3-sdling-74</t>
+  </si>
+  <si>
+    <t>3-sdling-75</t>
+  </si>
+  <si>
+    <t>3-sdling-79</t>
+  </si>
+  <si>
+    <t>3-sdling-76</t>
+  </si>
+  <si>
+    <t>3-sdling-77</t>
+  </si>
+  <si>
+    <t>3-sdling-78</t>
+  </si>
+  <si>
+    <t>3-sdling-80</t>
+  </si>
+  <si>
+    <t>3-sdling-81</t>
+  </si>
+  <si>
+    <t>3-sdling-82</t>
+  </si>
+  <si>
+    <t>3-sdling-83</t>
+  </si>
+  <si>
+    <t>3-sdling-84</t>
+  </si>
+  <si>
+    <t>3-sdling-85</t>
+  </si>
+  <si>
+    <t>3-sdling-86</t>
+  </si>
+  <si>
+    <t>3-sdling-87</t>
+  </si>
+  <si>
+    <t>3-sdling-88</t>
+  </si>
+  <si>
+    <t>3-sdling-89</t>
+  </si>
+  <si>
+    <t>3-sdling-90</t>
+  </si>
+  <si>
+    <t>3-sdling-91</t>
+  </si>
+  <si>
+    <t>3-sdling-92</t>
+  </si>
+  <si>
+    <t>3-sdling-93</t>
+  </si>
+  <si>
+    <t>3-sdling-97</t>
+  </si>
+  <si>
+    <t>3-sdling-98</t>
+  </si>
+  <si>
+    <t>3-sdling-94</t>
+  </si>
+  <si>
+    <t>3-sdling-96</t>
+  </si>
+  <si>
+    <t>3-sdling-95</t>
+  </si>
+  <si>
+    <t>3-sdling-99</t>
+  </si>
+  <si>
+    <t>3-sdling-100</t>
+  </si>
+  <si>
+    <t>2-sd-1</t>
+  </si>
+  <si>
+    <t>2-sd-2</t>
+  </si>
+  <si>
+    <t>2-sd-3</t>
+  </si>
+  <si>
+    <t>2-sd-4</t>
+  </si>
+  <si>
+    <t>2-sd-5</t>
+  </si>
+  <si>
+    <t>2-sd-6</t>
+  </si>
+  <si>
+    <t>2-sd-7</t>
+  </si>
+  <si>
+    <t>2-sd-8</t>
+  </si>
+  <si>
+    <t>2-sd-9</t>
+  </si>
+  <si>
+    <t>2-sd-10</t>
+  </si>
+  <si>
+    <t>2-sd-13</t>
+  </si>
+  <si>
+    <t>2-sd-12</t>
+  </si>
+  <si>
+    <t>2-sd-11</t>
+  </si>
+  <si>
+    <t>2-sd-14</t>
+  </si>
+  <si>
+    <t>2-sd-15</t>
+  </si>
+  <si>
+    <t>2-sd-16</t>
+  </si>
+  <si>
+    <t>2-sd-17</t>
+  </si>
+  <si>
+    <t>2-sd-18</t>
+  </si>
+  <si>
+    <t>2-sd-19</t>
+  </si>
+  <si>
+    <t>2-sd-20</t>
+  </si>
+  <si>
+    <t>2-sd-21</t>
+  </si>
+  <si>
+    <t>2-sd-23</t>
+  </si>
+  <si>
+    <t>2-sd-22</t>
+  </si>
+  <si>
+    <t>2-sd-24</t>
+  </si>
+  <si>
+    <t>2-sd-25</t>
+  </si>
+  <si>
+    <t>2-sd-26</t>
+  </si>
+  <si>
+    <t>2-sd-27</t>
+  </si>
+  <si>
+    <t>2-sd-28</t>
+  </si>
+  <si>
+    <t>2-sd-29</t>
+  </si>
+  <si>
+    <t>2-sd-30</t>
+  </si>
+  <si>
+    <t>2-sd-31</t>
+  </si>
+  <si>
+    <t>2-sd-32</t>
+  </si>
+  <si>
+    <t>2-sd-33</t>
+  </si>
+  <si>
+    <t>2-sd-34</t>
+  </si>
+  <si>
+    <t>2-sd-35</t>
+  </si>
+  <si>
+    <t>2-sd-36</t>
+  </si>
+  <si>
+    <t>2-sd-37</t>
+  </si>
+  <si>
+    <t>2-sd-38</t>
+  </si>
+  <si>
+    <t>2-sd-39</t>
+  </si>
+  <si>
+    <t>2-sd-40</t>
+  </si>
+  <si>
+    <t>2-sd-41</t>
+  </si>
+  <si>
+    <t>2-sd-42</t>
+  </si>
+  <si>
+    <t>2-sd-43</t>
+  </si>
+  <si>
+    <t>2-sd-44</t>
+  </si>
+  <si>
+    <t>2-sd-45</t>
+  </si>
+  <si>
+    <t>2-sd-46</t>
+  </si>
+  <si>
+    <t>2-sd-47</t>
+  </si>
+  <si>
+    <t>2-sd-48</t>
+  </si>
+  <si>
+    <t>2-sd-49</t>
+  </si>
+  <si>
+    <t>2-sd-50</t>
+  </si>
+  <si>
+    <t>2-sd-68</t>
+  </si>
+  <si>
+    <t>2-sd-51</t>
+  </si>
+  <si>
+    <t>2-sd-52</t>
+  </si>
+  <si>
+    <t>2-sd-53</t>
+  </si>
+  <si>
+    <t>2-sd-54</t>
+  </si>
+  <si>
+    <t>2-sd-55</t>
+  </si>
+  <si>
+    <t>2-sd-56</t>
+  </si>
+  <si>
+    <t>2-sd-57</t>
+  </si>
+  <si>
+    <t>2-sd-58</t>
+  </si>
+  <si>
+    <t>2-sd-59</t>
+  </si>
+  <si>
+    <t>2-sd-60</t>
+  </si>
+  <si>
+    <t>2-sd-61</t>
+  </si>
+  <si>
+    <t>2-sd-62</t>
+  </si>
+  <si>
+    <t>2-sd-63</t>
+  </si>
+  <si>
+    <t>2-sd-64</t>
+  </si>
+  <si>
+    <t>2-sd-92</t>
+  </si>
+  <si>
+    <t>2-sd-91</t>
+  </si>
+  <si>
+    <t>2-sd-65</t>
+  </si>
+  <si>
+    <t>2-sd-90</t>
+  </si>
+  <si>
+    <t>2-sd-66</t>
+  </si>
+  <si>
+    <t>2-sd-89</t>
+  </si>
+  <si>
+    <t>2-sd-67</t>
+  </si>
+  <si>
+    <t>2-sd-69</t>
+  </si>
+  <si>
+    <t>2-sd-70</t>
+  </si>
+  <si>
+    <t>2-sd-97</t>
+  </si>
+  <si>
+    <t>2-sd-98</t>
+  </si>
+  <si>
+    <t>2-sd-94</t>
+  </si>
+  <si>
+    <t>2-sd-95</t>
+  </si>
+  <si>
+    <t>2-sd-96</t>
+  </si>
+  <si>
+    <t>2-sd-99</t>
+  </si>
+  <si>
+    <t>2-sd-93</t>
+  </si>
+  <si>
+    <t>2-sd-100</t>
+  </si>
+  <si>
+    <t>2-sd-83</t>
+  </si>
+  <si>
+    <t>2-sd-84</t>
+  </si>
+  <si>
+    <t>2-sd-85</t>
+  </si>
+  <si>
+    <t>2-sd-86</t>
+  </si>
+  <si>
+    <t>2-sd-87</t>
+  </si>
+  <si>
+    <t>2-sd-88</t>
+  </si>
+  <si>
+    <t>2-sd-71</t>
+  </si>
+  <si>
+    <t>2-sd-82</t>
+  </si>
+  <si>
+    <t>2-sd-81</t>
+  </si>
+  <si>
+    <t>2-sd-72</t>
+  </si>
+  <si>
+    <t>2-sd-73</t>
+  </si>
+  <si>
+    <t>2-sd-74</t>
+  </si>
+  <si>
+    <t>2-sd-75</t>
+  </si>
+  <si>
+    <t>2-sd-76</t>
+  </si>
+  <si>
+    <t>2-sd-77</t>
+  </si>
+  <si>
+    <t>2-sd-78</t>
+  </si>
+  <si>
+    <t>2-sd-79</t>
+  </si>
+  <si>
+    <t>2-sd-80</t>
+  </si>
+  <si>
+    <t>3-sd-18</t>
+  </si>
+  <si>
+    <t>3-sd-19</t>
+  </si>
+  <si>
+    <t>3-sd-20</t>
+  </si>
+  <si>
+    <t>3-sd-21</t>
+  </si>
+  <si>
+    <t>3-sd-22</t>
+  </si>
+  <si>
+    <t>3-sd-23</t>
+  </si>
+  <si>
+    <t>3-sd-24</t>
+  </si>
+  <si>
+    <t>3-sd-25</t>
+  </si>
+  <si>
+    <t>3-sd-1</t>
+  </si>
+  <si>
+    <t>3-sd-2</t>
+  </si>
+  <si>
+    <t>3-sd-3</t>
+  </si>
+  <si>
+    <t>3-sd-4</t>
+  </si>
+  <si>
+    <t>3-sd-5</t>
+  </si>
+  <si>
+    <t>3-sd-6</t>
+  </si>
+  <si>
+    <t>3-sd-7</t>
+  </si>
+  <si>
+    <t>3-sd-8</t>
+  </si>
+  <si>
+    <t>3-sd-9</t>
+  </si>
+  <si>
+    <t>3-sd-10</t>
+  </si>
+  <si>
+    <t>3-sd-11</t>
+  </si>
+  <si>
+    <t>3-sd-12</t>
+  </si>
+  <si>
+    <t>3-sd-13</t>
+  </si>
+  <si>
+    <t>3-sd-14</t>
+  </si>
+  <si>
+    <t>3-sd-15</t>
+  </si>
+  <si>
+    <t>3-sd-16</t>
+  </si>
+  <si>
+    <t>3-sd-17</t>
+  </si>
+  <si>
+    <t>3-sd-26</t>
+  </si>
+  <si>
+    <t>3-sd-27</t>
+  </si>
+  <si>
+    <t>3-sd-28</t>
+  </si>
+  <si>
+    <t>3-sd-29</t>
+  </si>
+  <si>
+    <t>3-sd-30</t>
+  </si>
+  <si>
+    <t>3-sd-31</t>
+  </si>
+  <si>
+    <t>3-sd-32</t>
+  </si>
+  <si>
+    <t>3-sd-33</t>
+  </si>
+  <si>
+    <t>3-sd-34</t>
+  </si>
+  <si>
+    <t>3-sd-35</t>
+  </si>
+  <si>
+    <t>3-sd-36</t>
+  </si>
+  <si>
+    <t>3-sd-37</t>
+  </si>
+  <si>
+    <t>3-sd-38</t>
+  </si>
+  <si>
+    <t>3-sd-39</t>
+  </si>
+  <si>
+    <t>3-sd-40</t>
+  </si>
+  <si>
+    <t>3-sd-41</t>
+  </si>
+  <si>
+    <t>3-sd-42</t>
+  </si>
+  <si>
+    <t>3-sd-43</t>
+  </si>
+  <si>
+    <t>3-sd-44</t>
+  </si>
+  <si>
+    <t>3-sd-45</t>
+  </si>
+  <si>
+    <t>3-sd-46</t>
+  </si>
+  <si>
+    <t>3-sd-47</t>
+  </si>
+  <si>
+    <t>3-sd-48</t>
+  </si>
+  <si>
+    <t>3-sd-49</t>
+  </si>
+  <si>
+    <t>3-sd-50</t>
+  </si>
+  <si>
+    <t>3-sd-63</t>
+  </si>
+  <si>
+    <t>3-sd-64</t>
+  </si>
+  <si>
+    <t>3-sd-65</t>
+  </si>
+  <si>
+    <t>3-sd-66</t>
+  </si>
+  <si>
+    <t>3-sd-67</t>
+  </si>
+  <si>
+    <t>3-sd-62</t>
+  </si>
+  <si>
+    <t>3-sd-60</t>
+  </si>
+  <si>
+    <t>3-sd-59</t>
+  </si>
+  <si>
+    <t>3-sd-61</t>
+  </si>
+  <si>
+    <t>3-sd-58</t>
+  </si>
+  <si>
+    <t>3-sd-57</t>
+  </si>
+  <si>
+    <t>3-sd-51</t>
+  </si>
+  <si>
+    <t>3-sd-52</t>
+  </si>
+  <si>
+    <t>3-sd-53</t>
+  </si>
+  <si>
+    <t>3-sd-54</t>
+  </si>
+  <si>
+    <t>3-sd-55</t>
+  </si>
+  <si>
+    <t>3-sd-56</t>
+  </si>
+  <si>
+    <t>3-sd-68</t>
+  </si>
+  <si>
+    <t>3-sd-69</t>
+  </si>
+  <si>
+    <t>3-sd-70</t>
+  </si>
+  <si>
+    <t>3-sd-71</t>
+  </si>
+  <si>
+    <t>3-sd-72</t>
+  </si>
+  <si>
+    <t>3-sd-73</t>
+  </si>
+  <si>
+    <t>3-sd-74</t>
+  </si>
+  <si>
+    <t>3-sd-75</t>
+  </si>
+  <si>
+    <t>3-sd-76</t>
+  </si>
+  <si>
+    <t>3-sd-77</t>
+  </si>
+  <si>
+    <t>3-sd-78</t>
+  </si>
+  <si>
+    <t>3-sd-79</t>
+  </si>
+  <si>
+    <t>3-sd-80</t>
+  </si>
+  <si>
+    <t>3-sd-81</t>
+  </si>
+  <si>
+    <t>3-sd-83</t>
+  </si>
+  <si>
+    <t>3-sd-82</t>
+  </si>
+  <si>
+    <t>3-sd-84</t>
+  </si>
+  <si>
+    <t>3-sd-85</t>
+  </si>
+  <si>
+    <t>3-sd-86</t>
+  </si>
+  <si>
+    <t>3-sd-87</t>
+  </si>
+  <si>
+    <t>3-sd-88</t>
+  </si>
+  <si>
+    <t>3-sd-89</t>
+  </si>
+  <si>
+    <t>3-sd-90</t>
+  </si>
+  <si>
+    <t>3-sd-91</t>
+  </si>
+  <si>
+    <t>3-sd-92</t>
+  </si>
+  <si>
+    <t>3-sd-93</t>
+  </si>
+  <si>
+    <t>3-sd-97</t>
+  </si>
+  <si>
+    <t>3-sd-98</t>
+  </si>
+  <si>
+    <t>3-sd-94</t>
+  </si>
+  <si>
+    <t>3-sd-95</t>
+  </si>
+  <si>
+    <t>3-sd-96</t>
+  </si>
+  <si>
+    <t>3-sd-99</t>
+  </si>
+  <si>
+    <t>3-sd-100</t>
+  </si>
+  <si>
+    <t>Elevation1m</t>
   </si>
 </sst>
 </file>
@@ -1288,7 +1299,7 @@
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2130,32 +2141,32 @@
   <dimension ref="A1:R401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.47265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.9453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.15625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.15625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.89453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.15625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.15625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.47265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.15625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.15625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.47265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.15625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.15625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.62890625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.83984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2193,7 +2204,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>12</v>
@@ -2202,18 +2213,18 @@
         <v>13</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>415</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>416</v>
+        <v>15</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="B2" s="5">
         <v>531.03</v>
@@ -2267,9 +2278,9 @@
         <v>1.38232</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>218</v>
       </c>
       <c r="B3" s="5">
         <v>530.673</v>
@@ -2323,9 +2334,9 @@
         <v>6.57395</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="B4" s="5">
         <v>529.524</v>
@@ -2379,9 +2390,9 @@
         <v>-1.0158400000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="B5" s="5">
         <v>529.11099999999999</v>
@@ -2435,9 +2446,9 @@
         <v>2.6667100000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>221</v>
       </c>
       <c r="B6" s="5">
         <v>528.28399999999999</v>
@@ -2491,9 +2502,9 @@
         <v>-9.6216899999999994E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>222</v>
       </c>
       <c r="B7" s="5">
         <v>529.29</v>
@@ -2547,9 +2558,9 @@
         <v>3.5177299999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="B8" s="5">
         <v>530.25400000000002</v>
@@ -2603,9 +2614,9 @@
         <v>2.8750900000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>224</v>
       </c>
       <c r="B9" s="5">
         <v>530.18600000000004</v>
@@ -2659,9 +2670,9 @@
         <v>-3.0219</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="B10" s="5">
         <v>530.73099999999999</v>
@@ -2715,9 +2726,9 @@
         <v>2.5576099999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>226</v>
       </c>
       <c r="B11" s="5">
         <v>530.13499999999999</v>
@@ -2771,9 +2782,9 @@
         <v>-0.75680000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>227</v>
       </c>
       <c r="B12" s="5">
         <v>530.13499999999999</v>
@@ -2827,9 +2838,9 @@
         <v>-0.90135799999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>228</v>
       </c>
       <c r="B13" s="5">
         <v>530.37699999999995</v>
@@ -2883,9 +2894,9 @@
         <v>-3.1683500000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="B14" s="5">
         <v>530.37699999999995</v>
@@ -2939,9 +2950,9 @@
         <v>3.4998999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="B15" s="5">
         <v>528.803</v>
@@ -2995,9 +3006,9 @@
         <v>0.70619500000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>231</v>
       </c>
       <c r="B16" s="5">
         <v>528.04899999999998</v>
@@ -3051,9 +3062,9 @@
         <v>-5.8742999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="B17" s="5">
         <v>529.01599999999996</v>
@@ -3107,9 +3118,9 @@
         <v>-4.7135699999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>233</v>
       </c>
       <c r="B18" s="5">
         <v>528.28399999999999</v>
@@ -3163,9 +3174,9 @@
         <v>0.53132599999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>234</v>
       </c>
       <c r="B19" s="5">
         <v>527.32600000000002</v>
@@ -3219,9 +3230,9 @@
         <v>-3.6964800000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>235</v>
       </c>
       <c r="B20" s="5">
         <v>526.51099999999997</v>
@@ -3275,9 +3286,9 @@
         <v>-3.6202999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="B21" s="5">
         <v>526.577</v>
@@ -3331,9 +3342,9 @@
         <v>-8.6023300000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>237</v>
       </c>
       <c r="B22" s="5">
         <v>526.99</v>
@@ -3387,9 +3398,9 @@
         <v>0.90334000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>238</v>
       </c>
       <c r="B23" s="5">
         <v>528.04899999999998</v>
@@ -3443,9 +3454,9 @@
         <v>2.0538699999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>239</v>
       </c>
       <c r="B24" s="5">
         <v>528.04899999999998</v>
@@ -3499,9 +3510,9 @@
         <v>-6.1654999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>240</v>
       </c>
       <c r="B25" s="5">
         <v>526.51499999999999</v>
@@ -3555,9 +3566,9 @@
         <v>3.3434200000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:18">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="B26" s="5">
         <v>527.54499999999996</v>
@@ -3611,9 +3622,9 @@
         <v>3.1002900000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>242</v>
       </c>
       <c r="B27" s="5">
         <v>527.54499999999996</v>
@@ -3667,9 +3678,9 @@
         <v>-3.6729599999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>243</v>
       </c>
       <c r="B28" s="5">
         <v>527.68600000000004</v>
@@ -3723,9 +3734,9 @@
         <v>-2.8955099999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c r="B29" s="5">
         <v>528.40099999999995</v>
@@ -3779,9 +3790,9 @@
         <v>5.7553599999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:18">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>245</v>
       </c>
       <c r="B30" s="5">
         <v>526.85299999999995</v>
@@ -3835,9 +3846,9 @@
         <v>5.3000600000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:18">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>246</v>
       </c>
       <c r="B31" s="5">
         <v>527.59100000000001</v>
@@ -3891,9 +3902,9 @@
         <v>-6.2712199999999996E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:18">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="B32" s="5">
         <v>526.85299999999995</v>
@@ -3947,9 +3958,9 @@
         <v>-3.8757700000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:18">
       <c r="A33" s="1" t="s">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="B33" s="5">
         <v>524.94500000000005</v>
@@ -4003,9 +4014,9 @@
         <v>0.33855200000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:18">
       <c r="A34" s="1" t="s">
-        <v>46</v>
+        <v>249</v>
       </c>
       <c r="B34" s="5">
         <v>526.86099999999999</v>
@@ -4059,9 +4070,9 @@
         <v>-1.33924</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:18">
       <c r="A35" s="1" t="s">
-        <v>47</v>
+        <v>250</v>
       </c>
       <c r="B35" s="5">
         <v>524.49099999999999</v>
@@ -4115,9 +4126,9 @@
         <v>-2.3394499999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:18">
       <c r="A36" s="1" t="s">
-        <v>48</v>
+        <v>251</v>
       </c>
       <c r="B36" s="5">
         <v>525.21500000000003</v>
@@ -4171,9 +4182,9 @@
         <v>3.22519E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:18">
       <c r="A37" s="1" t="s">
-        <v>49</v>
+        <v>252</v>
       </c>
       <c r="B37" s="5">
         <v>524.53</v>
@@ -4227,9 +4238,9 @@
         <v>-0.84634399999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:18">
       <c r="A38" s="1" t="s">
-        <v>50</v>
+        <v>253</v>
       </c>
       <c r="B38" s="5">
         <v>524.53</v>
@@ -4283,9 +4294,9 @@
         <v>-0.79111600000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:18">
       <c r="A39" s="1" t="s">
-        <v>51</v>
+        <v>254</v>
       </c>
       <c r="B39" s="5">
         <v>524.53</v>
@@ -4339,9 +4350,9 @@
         <v>-0.16688900000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:18">
       <c r="A40" s="1" t="s">
-        <v>52</v>
+        <v>255</v>
       </c>
       <c r="B40" s="5">
         <v>522.95500000000004</v>
@@ -4395,9 +4406,9 @@
         <v>4.09701</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:18">
       <c r="A41" s="1" t="s">
-        <v>53</v>
+        <v>256</v>
       </c>
       <c r="B41" s="5">
         <v>522.95500000000004</v>
@@ -4451,9 +4462,9 @@
         <v>0.58827300000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:18">
       <c r="A42" s="1" t="s">
-        <v>54</v>
+        <v>257</v>
       </c>
       <c r="B42" s="5">
         <v>522.57399999999996</v>
@@ -4507,9 +4518,9 @@
         <v>1.93222</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:18">
       <c r="A43" s="1" t="s">
-        <v>55</v>
+        <v>258</v>
       </c>
       <c r="B43" s="5">
         <v>523.75800000000004</v>
@@ -4563,9 +4574,9 @@
         <v>-3.55226</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:18">
       <c r="A44" s="1" t="s">
-        <v>56</v>
+        <v>259</v>
       </c>
       <c r="B44" s="5">
         <v>521.42399999999998</v>
@@ -4619,9 +4630,9 @@
         <v>-7.1654299999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:18">
       <c r="A45" s="1" t="s">
-        <v>57</v>
+        <v>260</v>
       </c>
       <c r="B45" s="5">
         <v>521.42399999999998</v>
@@ -4675,9 +4686,9 @@
         <v>-4.7716799999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:18">
       <c r="A46" s="1" t="s">
-        <v>58</v>
+        <v>261</v>
       </c>
       <c r="B46" s="5">
         <v>518.26400000000001</v>
@@ -4731,9 +4742,9 @@
         <v>-0.22159699999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:18">
       <c r="A47" s="1" t="s">
-        <v>59</v>
+        <v>262</v>
       </c>
       <c r="B47" s="5">
         <v>518.89</v>
@@ -4787,9 +4798,9 @@
         <v>-0.19040199999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:18">
       <c r="A48" s="1" t="s">
-        <v>60</v>
+        <v>263</v>
       </c>
       <c r="B48" s="5">
         <v>519.76400000000001</v>
@@ -4843,9 +4854,9 @@
         <v>3.03999</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:18">
       <c r="A49" s="1" t="s">
-        <v>61</v>
+        <v>264</v>
       </c>
       <c r="B49" s="5">
         <v>520.173</v>
@@ -4899,9 +4910,9 @@
         <v>1.0743400000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:18">
       <c r="A50" s="1" t="s">
-        <v>62</v>
+        <v>265</v>
       </c>
       <c r="B50" s="5">
         <v>519.40599999999995</v>
@@ -4955,9 +4966,9 @@
         <v>-6.7730699999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:18">
       <c r="A51" s="1" t="s">
-        <v>63</v>
+        <v>266</v>
       </c>
       <c r="B51" s="5">
         <v>522.19799999999998</v>
@@ -5011,9 +5022,9 @@
         <v>-2.3493599999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:18">
       <c r="A52" s="1" t="s">
-        <v>64</v>
+        <v>267</v>
       </c>
       <c r="B52" s="5">
         <v>519.99900000000002</v>
@@ -5067,9 +5078,9 @@
         <v>1.1245099999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:18">
       <c r="A53" s="1" t="s">
-        <v>65</v>
+        <v>268</v>
       </c>
       <c r="B53" s="5">
         <v>522.94399999999996</v>
@@ -5123,9 +5134,9 @@
         <v>0.69510499999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:18">
       <c r="A54" s="1" t="s">
-        <v>66</v>
+        <v>269</v>
       </c>
       <c r="B54" s="5">
         <v>524.49099999999999</v>
@@ -5179,9 +5190,9 @@
         <v>-1.89882</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:18">
       <c r="A55" s="1" t="s">
-        <v>67</v>
+        <v>270</v>
       </c>
       <c r="B55" s="5">
         <v>523.71500000000003</v>
@@ -5235,9 +5246,9 @@
         <v>-8.5921699999999994</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:18">
       <c r="A56" s="1" t="s">
-        <v>68</v>
+        <v>271</v>
       </c>
       <c r="B56" s="5">
         <v>523.71500000000003</v>
@@ -5291,9 +5302,9 @@
         <v>3.5536500000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:18">
       <c r="A57" s="1" t="s">
-        <v>69</v>
+        <v>272</v>
       </c>
       <c r="B57" s="5">
         <v>523.95500000000004</v>
@@ -5347,9 +5358,9 @@
         <v>6.2306400000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:18">
       <c r="A58" s="1" t="s">
-        <v>70</v>
+        <v>273</v>
       </c>
       <c r="B58" s="5">
         <v>523.01</v>
@@ -5403,9 +5414,9 @@
         <v>6.2748699999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:18">
       <c r="A59" s="1" t="s">
-        <v>71</v>
+        <v>274</v>
       </c>
       <c r="B59" s="5">
         <v>523.01</v>
@@ -5459,9 +5470,9 @@
         <v>4.7613399999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:18">
       <c r="A60" s="1" t="s">
-        <v>72</v>
+        <v>275</v>
       </c>
       <c r="B60" s="5">
         <v>522.24699999999996</v>
@@ -5515,9 +5526,9 @@
         <v>-0.40591699999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:18">
       <c r="A61" s="1" t="s">
-        <v>73</v>
+        <v>276</v>
       </c>
       <c r="B61" s="5">
         <v>523.15499999999997</v>
@@ -5571,9 +5582,9 @@
         <v>1.82134</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:18">
       <c r="A62" s="1" t="s">
-        <v>74</v>
+        <v>277</v>
       </c>
       <c r="B62" s="5">
         <v>522.45399999999995</v>
@@ -5627,9 +5638,9 @@
         <v>6.1678699999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:18">
       <c r="A63" s="1" t="s">
-        <v>75</v>
+        <v>278</v>
       </c>
       <c r="B63" s="5">
         <v>521.56500000000005</v>
@@ -5683,9 +5694,9 @@
         <v>2.36076</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:18">
       <c r="A64" s="1" t="s">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="B64" s="5">
         <v>521.56500000000005</v>
@@ -5739,9 +5750,9 @@
         <v>0.99812699999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:18">
       <c r="A65" s="1" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="B65" s="5">
         <v>521.56500000000005</v>
@@ -5795,9 +5806,9 @@
         <v>1.5034799999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:18">
       <c r="A66" s="1" t="s">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="B66" s="5">
         <v>520.61300000000006</v>
@@ -5851,9 +5862,9 @@
         <v>3.2303000000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:18">
       <c r="A67" s="1" t="s">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="B67" s="5">
         <v>520.61300000000006</v>
@@ -5907,9 +5918,9 @@
         <v>3.7312699999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:18">
       <c r="A68" s="1" t="s">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="B68" s="5">
         <v>521.25900000000001</v>
@@ -5963,9 +5974,9 @@
         <v>3.8944299999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:18">
       <c r="A69" s="1" t="s">
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="B69" s="5">
         <v>521.96199999999999</v>
@@ -6019,9 +6030,9 @@
         <v>-0.17982100000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:18">
       <c r="A70" s="1" t="s">
-        <v>82</v>
+        <v>285</v>
       </c>
       <c r="B70" s="5">
         <v>521.25900000000001</v>
@@ -6075,9 +6086,9 @@
         <v>-0.46608100000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:18">
       <c r="A71" s="1" t="s">
-        <v>83</v>
+        <v>286</v>
       </c>
       <c r="B71" s="5">
         <v>520.72299999999996</v>
@@ -6131,9 +6142,9 @@
         <v>-1.4937400000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:18">
       <c r="A72" s="1" t="s">
-        <v>84</v>
+        <v>287</v>
       </c>
       <c r="B72" s="5">
         <v>520.101</v>
@@ -6187,9 +6198,9 @@
         <v>2.5886999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:18">
       <c r="A73" s="1" t="s">
-        <v>85</v>
+        <v>288</v>
       </c>
       <c r="B73" s="5">
         <v>521.41700000000003</v>
@@ -6243,9 +6254,9 @@
         <v>-1.96271</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:18">
       <c r="A74" s="1" t="s">
-        <v>86</v>
+        <v>289</v>
       </c>
       <c r="B74" s="5">
         <v>518.71600000000001</v>
@@ -6299,9 +6310,9 @@
         <v>-0.72885500000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:18">
       <c r="A75" s="1" t="s">
-        <v>87</v>
+        <v>290</v>
       </c>
       <c r="B75" s="5">
         <v>519.40599999999995</v>
@@ -6355,9 +6366,9 @@
         <v>0.29797000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:18">
       <c r="A76" s="1" t="s">
-        <v>88</v>
+        <v>291</v>
       </c>
       <c r="B76" s="5">
         <v>519.35699999999997</v>
@@ -6411,9 +6422,9 @@
         <v>2.6047799999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:18">
       <c r="A77" s="1" t="s">
-        <v>89</v>
+        <v>292</v>
       </c>
       <c r="B77" s="5">
         <v>519.35699999999997</v>
@@ -6467,9 +6478,9 @@
         <v>-1.59802</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:18">
       <c r="A78" s="1" t="s">
-        <v>90</v>
+        <v>293</v>
       </c>
       <c r="B78" s="5">
         <v>519.99699999999996</v>
@@ -6523,9 +6534,9 @@
         <v>-1.2858000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:18">
       <c r="A79" s="1" t="s">
-        <v>91</v>
+        <v>294</v>
       </c>
       <c r="B79" s="5">
         <v>520.89800000000002</v>
@@ -6579,9 +6590,9 @@
         <v>-2.4936699999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:18">
       <c r="A80" s="1" t="s">
-        <v>92</v>
+        <v>295</v>
       </c>
       <c r="B80" s="5">
         <v>520.89800000000002</v>
@@ -6635,9 +6646,9 @@
         <v>3.6797300000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:18">
       <c r="A81" s="1" t="s">
-        <v>93</v>
+        <v>296</v>
       </c>
       <c r="B81" s="5">
         <v>519.02300000000002</v>
@@ -6691,9 +6702,9 @@
         <v>4.5995999999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:18">
       <c r="A82" s="1" t="s">
-        <v>94</v>
+        <v>297</v>
       </c>
       <c r="B82" s="5">
         <v>521.56500000000005</v>
@@ -6747,9 +6758,9 @@
         <v>-3.1337600000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:18">
       <c r="A83" s="1" t="s">
-        <v>95</v>
+        <v>298</v>
       </c>
       <c r="B83" s="5">
         <v>519.99699999999996</v>
@@ -6803,9 +6814,9 @@
         <v>6.6619700000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:18">
       <c r="A84" s="1" t="s">
-        <v>96</v>
+        <v>299</v>
       </c>
       <c r="B84" s="5">
         <v>517.73900000000003</v>
@@ -6859,9 +6870,9 @@
         <v>6.1042899999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:18">
       <c r="A85" s="1" t="s">
-        <v>97</v>
+        <v>300</v>
       </c>
       <c r="B85" s="5">
         <v>517.29200000000003</v>
@@ -6915,9 +6926,9 @@
         <v>-2.71462</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:18">
       <c r="A86" s="1" t="s">
-        <v>98</v>
+        <v>301</v>
       </c>
       <c r="B86" s="5">
         <v>517.29200000000003</v>
@@ -6971,9 +6982,9 @@
         <v>-4.2358900000000004</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:18">
       <c r="A87" s="1" t="s">
-        <v>99</v>
+        <v>302</v>
       </c>
       <c r="B87" s="5">
         <v>518.923</v>
@@ -7027,9 +7038,9 @@
         <v>1.1480399999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:18">
       <c r="A88" s="1" t="s">
-        <v>100</v>
+        <v>303</v>
       </c>
       <c r="B88" s="5">
         <v>519.43499999999995</v>
@@ -7083,9 +7094,9 @@
         <v>6.6355000000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:18">
       <c r="A89" s="1" t="s">
-        <v>101</v>
+        <v>304</v>
       </c>
       <c r="B89" s="5">
         <v>520.101</v>
@@ -7139,9 +7150,9 @@
         <v>-1.6843300000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:18">
       <c r="A90" s="1" t="s">
-        <v>102</v>
+        <v>305</v>
       </c>
       <c r="B90" s="5">
         <v>518.226</v>
@@ -7195,9 +7206,9 @@
         <v>0.49022100000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:18">
       <c r="A91" s="1" t="s">
-        <v>103</v>
+        <v>306</v>
       </c>
       <c r="B91" s="5">
         <v>516.99599999999998</v>
@@ -7251,9 +7262,9 @@
         <v>-4.1661700000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:18">
       <c r="A92" s="1" t="s">
-        <v>104</v>
+        <v>307</v>
       </c>
       <c r="B92" s="5">
         <v>517.49400000000003</v>
@@ -7307,9 +7318,9 @@
         <v>-2.6753300000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:18">
       <c r="A93" s="1" t="s">
-        <v>105</v>
+        <v>308</v>
       </c>
       <c r="B93" s="5">
         <v>518.226</v>
@@ -7363,9 +7374,9 @@
         <v>0.22170000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:18">
       <c r="A94" s="1" t="s">
-        <v>106</v>
+        <v>309</v>
       </c>
       <c r="B94" s="5">
         <v>518.226</v>
@@ -7419,9 +7430,9 @@
         <v>-4.2921300000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:18">
       <c r="A95" s="1" t="s">
-        <v>107</v>
+        <v>310</v>
       </c>
       <c r="B95" s="5">
         <v>519.06100000000004</v>
@@ -7475,9 +7486,9 @@
         <v>-0.22452900000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:18">
       <c r="A96" s="1" t="s">
-        <v>108</v>
+        <v>311</v>
       </c>
       <c r="B96" s="5">
         <v>518.11900000000003</v>
@@ -7531,9 +7542,9 @@
         <v>-0.123207</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:18">
       <c r="A97" s="1" t="s">
-        <v>109</v>
+        <v>312</v>
       </c>
       <c r="B97" s="5">
         <v>518.11900000000003</v>
@@ -7587,9 +7598,9 @@
         <v>-6.5907600000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:18">
       <c r="A98" s="1" t="s">
-        <v>110</v>
+        <v>313</v>
       </c>
       <c r="B98" s="5">
         <v>518.11900000000003</v>
@@ -7643,9 +7654,9 @@
         <v>-6.0888999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:18">
       <c r="A99" s="1" t="s">
-        <v>111</v>
+        <v>314</v>
       </c>
       <c r="B99" s="5">
         <v>516.51900000000001</v>
@@ -7699,9 +7710,9 @@
         <v>-1.9132400000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:18">
       <c r="A100" s="1" t="s">
-        <v>112</v>
+        <v>315</v>
       </c>
       <c r="B100" s="5">
         <v>516.45600000000002</v>
@@ -7755,9 +7766,9 @@
         <v>-0.47145199999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:18">
       <c r="A101" s="1" t="s">
-        <v>113</v>
+        <v>316</v>
       </c>
       <c r="B101" s="5">
         <v>515.81700000000001</v>
@@ -7811,9 +7822,9 @@
         <v>-4.6360799999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:18">
       <c r="A102" s="1" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="B102" s="5">
         <v>515.55499999999995</v>
@@ -7867,9 +7878,9 @@
         <v>-4.1794599999999997</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:18">
       <c r="A103" s="1" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="B103" s="5">
         <v>515.78300000000002</v>
@@ -7923,9 +7934,9 @@
         <v>6.4267000000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:18">
       <c r="A104" s="1" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="B104" s="5">
         <v>517.255</v>
@@ -7979,9 +7990,9 @@
         <v>-6.9496900000000004</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:18">
       <c r="A105" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="B105" s="5">
         <v>516.45600000000002</v>
@@ -8035,9 +8046,9 @@
         <v>5.6837099999999996</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:18">
       <c r="A106" s="1" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="B106" s="5">
         <v>518.71600000000001</v>
@@ -8091,9 +8102,9 @@
         <v>-0.72885500000000003</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:18">
       <c r="A107" s="1" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="B107" s="5">
         <v>519.99900000000002</v>
@@ -8147,9 +8158,9 @@
         <v>1.21251</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:18">
       <c r="A108" s="1" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="B108" s="5">
         <v>519.99900000000002</v>
@@ -8203,9 +8214,9 @@
         <v>-3.09653</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:18">
       <c r="A109" s="1" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="B109" s="5">
         <v>521.42700000000002</v>
@@ -8259,9 +8270,9 @@
         <v>-1.1530100000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:18">
       <c r="A110" s="1" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="B110" s="5">
         <v>520.68799999999999</v>
@@ -8315,9 +8326,9 @@
         <v>-5.0708000000000002</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:18">
       <c r="A111" s="1" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="B111" s="5">
         <v>520.68799999999999</v>
@@ -8371,9 +8382,9 @@
         <v>-4.5497199999999998</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:18">
       <c r="A112" s="1" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="B112" s="5">
         <v>519.40599999999995</v>
@@ -8427,9 +8438,9 @@
         <v>-6.1879600000000003</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:18">
       <c r="A113" s="1" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="B113" s="5">
         <v>520.173</v>
@@ -8483,9 +8494,9 @@
         <v>1.0743400000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:18">
       <c r="A114" s="1" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="B114" s="5">
         <v>520.84100000000001</v>
@@ -8539,9 +8550,9 @@
         <v>1.05006</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:18">
       <c r="A115" s="1" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="B115" s="5">
         <v>519.06100000000004</v>
@@ -8595,9 +8606,9 @@
         <v>-1.43055</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:18">
       <c r="A116" s="1" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="B116" s="5">
         <v>519.678</v>
@@ -8651,9 +8662,9 @@
         <v>-6.0836800000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:18">
       <c r="A117" s="1" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="B117" s="5">
         <v>518.11900000000003</v>
@@ -8707,9 +8718,9 @@
         <v>-3.3268200000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:18">
       <c r="A118" s="1" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="B118" s="5">
         <v>518.89</v>
@@ -8763,9 +8774,9 @@
         <v>0.46211200000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:18">
       <c r="A119" s="1" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="B119" s="5">
         <v>518.11900000000003</v>
@@ -8819,9 +8830,9 @@
         <v>1.19085</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:18">
       <c r="A120" s="1" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="B120" s="5">
         <v>521.41700000000003</v>
@@ -8875,9 +8886,9 @@
         <v>2.9466899999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:18">
       <c r="A121" s="1" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="B121" s="5">
         <v>522.81799999999998</v>
@@ -8931,9 +8942,9 @@
         <v>-0.123458</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:18">
       <c r="A122" s="1" t="s">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="B122" s="5">
         <v>520.101</v>
@@ -8987,9 +8998,9 @@
         <v>3.2928899999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:18">
       <c r="A123" s="1" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="B123" s="5">
         <v>519.43499999999995</v>
@@ -9043,9 +9054,9 @@
         <v>1.8005</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:18">
       <c r="A124" s="1" t="s">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="B124" s="5">
         <v>519.57000000000005</v>
@@ -9099,9 +9110,9 @@
         <v>-3.2839999999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:18">
       <c r="A125" s="1" t="s">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="B125" s="5">
         <v>521.25900000000001</v>
@@ -9155,9 +9166,9 @@
         <v>-0.46608100000000002</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:18">
       <c r="A126" s="1" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="B126" s="5">
         <v>519.99699999999996</v>
@@ -9211,9 +9222,9 @@
         <v>-2.83832</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:18">
       <c r="A127" s="1" t="s">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="B127" s="5">
         <v>519.99699999999996</v>
@@ -9267,9 +9278,9 @@
         <v>6.6619700000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:18">
       <c r="A128" s="1" t="s">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="B128" s="5">
         <v>520.89800000000002</v>
@@ -9323,9 +9334,9 @@
         <v>3.6797300000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:18">
       <c r="A129" s="1" t="s">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="B129" s="5">
         <v>522.24699999999996</v>
@@ -9379,9 +9390,9 @@
         <v>-0.72998600000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:18">
       <c r="A130" s="1" t="s">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="B130" s="5">
         <v>522.24699999999996</v>
@@ -9435,9 +9446,9 @@
         <v>6.4731100000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:18">
       <c r="A131" s="1" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B131" s="5">
         <v>520.101</v>
@@ -9491,9 +9502,9 @@
         <v>2.5886999999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:18">
       <c r="A132" s="1" t="s">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="B132" s="5">
         <v>521.41700000000003</v>
@@ -9547,9 +9558,9 @@
         <v>-0.89731099999999997</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:18">
       <c r="A133" s="1" t="s">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="B133" s="5">
         <v>524.96299999999997</v>
@@ -9603,9 +9614,9 @@
         <v>-2.4453200000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:18">
       <c r="A134" s="1" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="B134" s="5">
         <v>523.95500000000004</v>
@@ -9659,9 +9670,9 @@
         <v>0.95611999999999997</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:18">
       <c r="A135" s="1" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="B135" s="5">
         <v>522.81799999999998</v>
@@ -9715,9 +9726,9 @@
         <v>2.2022200000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:18">
       <c r="A136" s="1" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="B136" s="5">
         <v>523.01</v>
@@ -9771,9 +9782,9 @@
         <v>-6.35595</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:18">
       <c r="A137" s="1" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="B137" s="5">
         <v>523.95500000000004</v>
@@ -9827,9 +9838,9 @@
         <v>-2.6950100000000001E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:18">
       <c r="A138" s="1" t="s">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="B138" s="5">
         <v>523.95500000000004</v>
@@ -9883,9 +9894,9 @@
         <v>-1.99343</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:18">
       <c r="A139" s="1" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="B139" s="5">
         <v>523.15499999999997</v>
@@ -9939,9 +9950,9 @@
         <v>0.19579199999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:18">
       <c r="A140" s="1" t="s">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="B140" s="5">
         <v>523.15499999999997</v>
@@ -9995,9 +10006,9 @@
         <v>-2.0604200000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:18">
       <c r="A141" s="1" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="B141" s="5">
         <v>523.94100000000003</v>
@@ -10051,9 +10062,9 @@
         <v>10.165100000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:18">
       <c r="A142" s="1" t="s">
-        <v>154</v>
+        <v>57</v>
       </c>
       <c r="B142" s="5">
         <v>523.94100000000003</v>
@@ -10107,9 +10118,9 @@
         <v>10.818</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:18">
       <c r="A143" s="1" t="s">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="B143" s="5">
         <v>523.95500000000004</v>
@@ -10163,9 +10174,9 @@
         <v>6.2306400000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:18">
       <c r="A144" s="1" t="s">
-        <v>156</v>
+        <v>59</v>
       </c>
       <c r="B144" s="5">
         <v>523.71500000000003</v>
@@ -10219,9 +10230,9 @@
         <v>-0.75446800000000003</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:18">
       <c r="A145" s="1" t="s">
-        <v>157</v>
+        <v>60</v>
       </c>
       <c r="B145" s="5">
         <v>522.94399999999996</v>
@@ -10275,9 +10286,9 @@
         <v>0.37745200000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:18">
       <c r="A146" s="1" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="B146" s="5">
         <v>522.94399999999996</v>
@@ -10331,9 +10342,9 @@
         <v>-2.9790299999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:18">
       <c r="A147" s="1" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="B147" s="5">
         <v>521.58799999999997</v>
@@ -10387,9 +10398,9 @@
         <v>-0.68953399999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:18">
       <c r="A148" s="1" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="B148" s="5">
         <v>521.58799999999997</v>
@@ -10443,9 +10454,9 @@
         <v>1.7534799999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:18">
       <c r="A149" s="1" t="s">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="B149" s="5">
         <v>521.58799999999997</v>
@@ -10499,9 +10510,9 @@
         <v>-3.21679</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:18">
       <c r="A150" s="1" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="B150" s="5">
         <v>523.75800000000004</v>
@@ -10555,9 +10566,9 @@
         <v>-2.7607200000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:18">
       <c r="A151" s="1" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="B151" s="5">
         <v>520.48599999999999</v>
@@ -10611,9 +10622,9 @@
         <v>-9.9129299999999994</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:18">
       <c r="A152" s="1" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="B152" s="5">
         <v>522.53099999999995</v>
@@ -10667,9 +10678,9 @@
         <v>-5.8161699999999996</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:18">
       <c r="A153" s="1" t="s">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="B153" s="5">
         <v>523.75800000000004</v>
@@ -10723,9 +10734,9 @@
         <v>3.1963400000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:18">
       <c r="A154" s="1" t="s">
-        <v>166</v>
+        <v>69</v>
       </c>
       <c r="B154" s="5">
         <v>523.75800000000004</v>
@@ -10779,9 +10790,9 @@
         <v>-5.5156900000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:18">
       <c r="A155" s="1" t="s">
-        <v>167</v>
+        <v>70</v>
       </c>
       <c r="B155" s="5">
         <v>524.53</v>
@@ -10835,9 +10846,9 @@
         <v>-3.4342700000000002</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:18">
       <c r="A156" s="1" t="s">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="B156" s="5">
         <v>524.49099999999999</v>
@@ -10891,9 +10902,9 @@
         <v>-12.926600000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:18">
       <c r="A157" s="1" t="s">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c r="B157" s="5">
         <v>524.49099999999999</v>
@@ -10947,9 +10958,9 @@
         <v>-4.7373799999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:18">
       <c r="A158" s="1" t="s">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="B158" s="5">
         <v>525.80200000000002</v>
@@ -11003,9 +11014,9 @@
         <v>2.7103299999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:18">
       <c r="A159" s="1" t="s">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="B159" s="5">
         <v>524.96299999999997</v>
@@ -11059,9 +11070,9 @@
         <v>0.97997000000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:18">
       <c r="A160" s="1" t="s">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="B160" s="5">
         <v>524.96299999999997</v>
@@ -11115,9 +11126,9 @@
         <v>-2.4453200000000002</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:18">
       <c r="A161" s="1" t="s">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="B161" s="5">
         <v>526.00900000000001</v>
@@ -11171,9 +11182,9 @@
         <v>-7.5811299999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:18">
       <c r="A162" s="1" t="s">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="B162" s="5">
         <v>524.94500000000005</v>
@@ -11227,9 +11238,9 @@
         <v>1.8831800000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:18">
       <c r="A163" s="1" t="s">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="B163" s="5">
         <v>524.81799999999998</v>
@@ -11283,9 +11294,9 @@
         <v>1.4543299999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:18">
       <c r="A164" s="1" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="B164" s="5">
         <v>521.41700000000003</v>
@@ -11339,9 +11350,9 @@
         <v>1.5095000000000001E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:18">
       <c r="A165" s="1" t="s">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="B165" s="5">
         <v>524.94500000000005</v>
@@ -11395,9 +11406,9 @@
         <v>7.02508</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:18">
       <c r="A166" s="1" t="s">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="B166" s="5">
         <v>525.83500000000004</v>
@@ -11451,9 +11462,9 @@
         <v>7.8059099999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:18">
       <c r="A167" s="1" t="s">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="B167" s="5">
         <v>525.83500000000004</v>
@@ -11507,9 +11518,9 @@
         <v>3.2735300000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:18">
       <c r="A168" s="1" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="B168" s="5">
         <v>525.83500000000004</v>
@@ -11563,9 +11574,9 @@
         <v>0.82964400000000005</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:18">
       <c r="A169" s="1" t="s">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="B169" s="5">
         <v>527.68600000000004</v>
@@ -11619,9 +11630,9 @@
         <v>6.3101399999999996</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:18">
       <c r="A170" s="1" t="s">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="B170" s="5">
         <v>528.34199999999998</v>
@@ -11675,9 +11686,9 @@
         <v>1.38941</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:18">
       <c r="A171" s="1" t="s">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="B171" s="5">
         <v>526.86099999999999</v>
@@ -11731,9 +11742,9 @@
         <v>-6.3532500000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:18">
       <c r="A172" s="1" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="B172" s="5">
         <v>527.54499999999996</v>
@@ -11787,9 +11798,9 @@
         <v>-3.1516899999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:18">
       <c r="A173" s="1" t="s">
-        <v>185</v>
+        <v>88</v>
       </c>
       <c r="B173" s="5">
         <v>526.51499999999999</v>
@@ -11843,9 +11854,9 @@
         <v>3.3434200000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:18">
       <c r="A174" s="1" t="s">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="B174" s="5">
         <v>528.04899999999998</v>
@@ -11899,9 +11910,9 @@
         <v>2.0538699999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:18">
       <c r="A175" s="1" t="s">
-        <v>187</v>
+        <v>90</v>
       </c>
       <c r="B175" s="5">
         <v>526.05999999999995</v>
@@ -11955,9 +11966,9 @@
         <v>1.5154300000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:18">
       <c r="A176" s="1" t="s">
-        <v>188</v>
+        <v>91</v>
       </c>
       <c r="B176" s="5">
         <v>526.99</v>
@@ -12011,9 +12022,9 @@
         <v>-4.1987699999999997</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:18">
       <c r="A177" s="1" t="s">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="B177" s="5">
         <v>526.99</v>
@@ -12067,9 +12078,9 @@
         <v>-3.18777</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:18">
       <c r="A178" s="1" t="s">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="B178" s="5">
         <v>524.53</v>
@@ -12123,9 +12134,9 @@
         <v>-0.84634399999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:18">
       <c r="A179" s="1" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="B179" s="5">
         <v>523.95399999999995</v>
@@ -12179,9 +12190,9 @@
         <v>4.9482200000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:18">
       <c r="A180" s="1" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="B180" s="5">
         <v>527.32600000000002</v>
@@ -12235,9 +12246,9 @@
         <v>-6.5021399999999998</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:18">
       <c r="A181" s="1" t="s">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="B181" s="5">
         <v>528.63800000000003</v>
@@ -12291,9 +12302,9 @@
         <v>-0.65373700000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:18">
       <c r="A182" s="1" t="s">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="B182" s="5">
         <v>527.29600000000005</v>
@@ -12347,9 +12358,9 @@
         <v>1.6938500000000001</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:18">
       <c r="A183" s="1" t="s">
-        <v>195</v>
+        <v>98</v>
       </c>
       <c r="B183" s="5">
         <v>533.303</v>
@@ -12403,9 +12414,9 @@
         <v>3.78809</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:18">
       <c r="A184" s="1" t="s">
-        <v>196</v>
+        <v>317</v>
       </c>
       <c r="B184" s="5">
         <v>533.24900000000002</v>
@@ -12459,9 +12470,9 @@
         <v>1.3408100000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:18">
       <c r="A185" s="1" t="s">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="B185" s="5">
         <v>534.08900000000006</v>
@@ -12515,9 +12526,9 @@
         <v>1.7844100000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:18">
       <c r="A186" s="1" t="s">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="B186" s="5">
         <v>534.08900000000006</v>
@@ -12571,9 +12582,9 @@
         <v>2.4681999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:18">
       <c r="A187" s="1" t="s">
-        <v>199</v>
+        <v>318</v>
       </c>
       <c r="B187" s="5">
         <v>534.18700000000001</v>
@@ -12627,9 +12638,9 @@
         <v>1.9531700000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:18">
       <c r="A188" s="1" t="s">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="B188" s="5">
         <v>533.76700000000005</v>
@@ -12683,9 +12694,9 @@
         <v>0.78891699999999998</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:18">
       <c r="A189" s="1" t="s">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="B189" s="5">
         <v>534.18700000000001</v>
@@ -12739,9 +12750,9 @@
         <v>-4.6894900000000002</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:18">
       <c r="A190" s="1" t="s">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="B190" s="5">
         <v>533.98900000000003</v>
@@ -12795,9 +12806,9 @@
         <v>-0.76022299999999998</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:18">
       <c r="A191" s="1" t="s">
-        <v>203</v>
+        <v>320</v>
       </c>
       <c r="B191" s="5">
         <v>533.98900000000003</v>
@@ -12851,9 +12862,9 @@
         <v>4.8471799999999998</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:18">
       <c r="A192" s="1" t="s">
-        <v>204</v>
+        <v>321</v>
       </c>
       <c r="B192" s="5">
         <v>533.59799999999996</v>
@@ -12907,9 +12918,9 @@
         <v>-3.4558</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:18">
       <c r="A193" s="1" t="s">
-        <v>205</v>
+        <v>103</v>
       </c>
       <c r="B193" s="5">
         <v>533.58399999999995</v>
@@ -12963,9 +12974,9 @@
         <v>1.03302</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:18">
       <c r="A194" s="1" t="s">
-        <v>206</v>
+        <v>104</v>
       </c>
       <c r="B194" s="5">
         <v>533.16800000000001</v>
@@ -13019,9 +13030,9 @@
         <v>3.7366600000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:18">
       <c r="A195" s="1" t="s">
-        <v>207</v>
+        <v>322</v>
       </c>
       <c r="B195" s="5">
         <v>532.798</v>
@@ -13075,9 +13086,9 @@
         <v>1.4067400000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:18">
       <c r="A196" s="1" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="B196" s="5">
         <v>533.16800000000001</v>
@@ -13131,9 +13142,9 @@
         <v>-4.6444000000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:18">
       <c r="A197" s="1" t="s">
-        <v>209</v>
+        <v>323</v>
       </c>
       <c r="B197" s="5">
         <v>531.49699999999996</v>
@@ -13187,9 +13198,9 @@
         <v>0.69137499999999996</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:18">
       <c r="A198" s="1" t="s">
-        <v>210</v>
+        <v>106</v>
       </c>
       <c r="B198" s="5">
         <v>532.11099999999999</v>
@@ -13243,9 +13254,9 @@
         <v>1.86738</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:18">
       <c r="A199" s="1" t="s">
-        <v>211</v>
+        <v>107</v>
       </c>
       <c r="B199" s="5">
         <v>531.49699999999996</v>
@@ -13299,9 +13310,9 @@
         <v>0.69137499999999996</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:18">
       <c r="A200" s="1" t="s">
-        <v>212</v>
+        <v>324</v>
       </c>
       <c r="B200" s="5">
         <v>530.58199999999999</v>
@@ -13355,9 +13366,9 @@
         <v>-2.3441700000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:18">
       <c r="A201" s="1" t="s">
-        <v>213</v>
+        <v>325</v>
       </c>
       <c r="B201" s="5">
         <v>532.88</v>
@@ -13411,9 +13422,9 @@
         <v>-4.1066200000000004</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:18">
       <c r="A202" s="1" t="s">
-        <v>214</v>
+        <v>326</v>
       </c>
       <c r="B202" s="5">
         <v>532.95500000000004</v>
@@ -13467,9 +13478,9 @@
         <v>-3.0952500000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:18">
       <c r="A203" s="1" t="s">
-        <v>215</v>
+        <v>327</v>
       </c>
       <c r="B203" s="5">
         <v>533.03</v>
@@ -13523,9 +13534,9 @@
         <v>-6.9533699999999996</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:18">
       <c r="A204" s="1" t="s">
-        <v>216</v>
+        <v>328</v>
       </c>
       <c r="B204" s="5">
         <v>533.03</v>
@@ -13579,9 +13590,9 @@
         <v>-1.8270599999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:18">
       <c r="A205" s="1" t="s">
-        <v>217</v>
+        <v>329</v>
       </c>
       <c r="B205" s="5">
         <v>532.79899999999998</v>
@@ -13635,9 +13646,9 @@
         <v>1.8526800000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:18">
       <c r="A206" s="1" t="s">
-        <v>218</v>
+        <v>330</v>
       </c>
       <c r="B206" s="5">
         <v>531.49599999999998</v>
@@ -13691,9 +13702,9 @@
         <v>0.45566800000000002</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:18">
       <c r="A207" s="1" t="s">
-        <v>219</v>
+        <v>331</v>
       </c>
       <c r="B207" s="5">
         <v>530.62199999999996</v>
@@ -13747,9 +13758,9 @@
         <v>-4.1416399999999998</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:18">
       <c r="A208" s="1" t="s">
-        <v>220</v>
+        <v>332</v>
       </c>
       <c r="B208" s="5">
         <v>528.30999999999995</v>
@@ -13803,9 +13814,9 @@
         <v>1.7304200000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:18">
       <c r="A209" s="1" t="s">
-        <v>221</v>
+        <v>333</v>
       </c>
       <c r="B209" s="5">
         <v>528.30999999999995</v>
@@ -13859,9 +13870,9 @@
         <v>1.01064</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:18">
       <c r="A210" s="1" t="s">
-        <v>222</v>
+        <v>334</v>
       </c>
       <c r="B210" s="5">
         <v>528.30999999999995</v>
@@ -13915,9 +13926,9 @@
         <v>-1.9979100000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:18">
       <c r="A211" s="1" t="s">
-        <v>223</v>
+        <v>335</v>
       </c>
       <c r="B211" s="5">
         <v>529.904</v>
@@ -13971,9 +13982,9 @@
         <v>5.0906700000000003</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:18">
       <c r="A212" s="1" t="s">
-        <v>224</v>
+        <v>336</v>
       </c>
       <c r="B212" s="5">
         <v>531.49599999999998</v>
@@ -14027,9 +14038,9 @@
         <v>4.1503800000000002</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:18">
       <c r="A213" s="1" t="s">
-        <v>225</v>
+        <v>337</v>
       </c>
       <c r="B213" s="5">
         <v>532.26900000000001</v>
@@ -14083,9 +14094,9 @@
         <v>1.6603399999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:18">
       <c r="A214" s="1" t="s">
-        <v>226</v>
+        <v>338</v>
       </c>
       <c r="B214" s="5">
         <v>532.26900000000001</v>
@@ -14139,9 +14150,9 @@
         <v>0.79622800000000005</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:18">
       <c r="A215" s="1" t="s">
-        <v>227</v>
+        <v>339</v>
       </c>
       <c r="B215" s="5">
         <v>533.26300000000003</v>
@@ -14195,9 +14206,9 @@
         <v>-5.3796799999999996</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:18">
       <c r="A216" s="1" t="s">
-        <v>228</v>
+        <v>340</v>
       </c>
       <c r="B216" s="5">
         <v>532.79899999999998</v>
@@ -14251,9 +14262,9 @@
         <v>10.598000000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:18">
       <c r="A217" s="1" t="s">
-        <v>229</v>
+        <v>341</v>
       </c>
       <c r="B217" s="5">
         <v>533.26300000000003</v>
@@ -14307,9 +14318,9 @@
         <v>3.94983</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:18">
       <c r="A218" s="1" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="B218" s="5">
         <v>532.95500000000004</v>
@@ -14363,9 +14374,9 @@
         <v>-4.4036099999999996</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:18">
       <c r="A219" s="1" t="s">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c r="B219" s="5">
         <v>532.95500000000004</v>
@@ -14419,9 +14430,9 @@
         <v>-9.1621000000000006</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:18">
       <c r="A220" s="1" t="s">
-        <v>232</v>
+        <v>110</v>
       </c>
       <c r="B220" s="5">
         <v>532.44399999999996</v>
@@ -14475,9 +14486,9 @@
         <v>-4.1371399999999996</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:18">
       <c r="A221" s="1" t="s">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="B221" s="5">
         <v>532.44399999999996</v>
@@ -14531,9 +14542,9 @@
         <v>1.76973</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:18">
       <c r="A222" s="1" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
       <c r="B222" s="5">
         <v>532.44399999999996</v>
@@ -14587,9 +14598,9 @@
         <v>-1.2863800000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:18">
       <c r="A223" s="1" t="s">
-        <v>235</v>
+        <v>113</v>
       </c>
       <c r="B223" s="5">
         <v>529.78499999999997</v>
@@ -14643,9 +14654,9 @@
         <v>2.9388200000000002</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:18">
       <c r="A224" s="1" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="B224" s="5">
         <v>529.904</v>
@@ -14699,9 +14710,9 @@
         <v>1.9665699999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:18">
       <c r="A225" s="1" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="B225" s="5">
         <v>528.30999999999995</v>
@@ -14755,9 +14766,9 @@
         <v>3.1030000000000002</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:18">
       <c r="A226" s="1" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="B226" s="5">
         <v>529.904</v>
@@ -14811,9 +14822,9 @@
         <v>1.9665699999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:18">
       <c r="A227" s="1" t="s">
-        <v>239</v>
+        <v>117</v>
       </c>
       <c r="B227" s="5">
         <v>529.05200000000002</v>
@@ -14867,9 +14878,9 @@
         <v>-3.6374399999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:18">
       <c r="A228" s="1" t="s">
-        <v>240</v>
+        <v>118</v>
       </c>
       <c r="B228" s="5">
         <v>532.26900000000001</v>
@@ -14923,9 +14934,9 @@
         <v>1.6603399999999999</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:18">
       <c r="A229" s="1" t="s">
-        <v>241</v>
+        <v>119</v>
       </c>
       <c r="B229" s="5">
         <v>530.71600000000001</v>
@@ -14979,9 +14990,9 @@
         <v>-0.76566199999999995</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:18">
       <c r="A230" s="1" t="s">
-        <v>242</v>
+        <v>120</v>
       </c>
       <c r="B230" s="5">
         <v>532.798</v>
@@ -15035,9 +15046,9 @@
         <v>3.0614699999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:18">
       <c r="A231" s="1" t="s">
-        <v>243</v>
+        <v>121</v>
       </c>
       <c r="B231" s="5">
         <v>533.26300000000003</v>
@@ -15091,9 +15102,9 @@
         <v>5.8895299999999997</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:18">
       <c r="A232" s="1" t="s">
-        <v>244</v>
+        <v>122</v>
       </c>
       <c r="B232" s="5">
         <v>533.59799999999996</v>
@@ -15147,9 +15158,9 @@
         <v>-5.6976300000000002</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:18">
       <c r="A233" s="1" t="s">
-        <v>245</v>
+        <v>342</v>
       </c>
       <c r="B233" s="5">
         <v>529.05200000000002</v>
@@ -15203,9 +15214,9 @@
         <v>1.0640099999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:18">
       <c r="A234" s="1" t="s">
-        <v>246</v>
+        <v>123</v>
       </c>
       <c r="B234" s="5">
         <v>528.12699999999995</v>
@@ -15259,9 +15270,9 @@
         <v>3.4281799999999998</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:18">
       <c r="A235" s="1" t="s">
-        <v>247</v>
+        <v>124</v>
       </c>
       <c r="B235" s="5">
         <v>528.12699999999995</v>
@@ -15315,9 +15326,9 @@
         <v>-0.17846799999999999</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:18">
       <c r="A236" s="1" t="s">
-        <v>248</v>
+        <v>343</v>
       </c>
       <c r="B236" s="5">
         <v>527.39400000000001</v>
@@ -15371,9 +15382,9 @@
         <v>-3.2655699999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:18">
       <c r="A237" s="1" t="s">
-        <v>249</v>
+        <v>344</v>
       </c>
       <c r="B237" s="5">
         <v>527.39400000000001</v>
@@ -15427,9 +15438,9 @@
         <v>1.89798</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:18">
       <c r="A238" s="1" t="s">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="B238" s="5">
         <v>526.63900000000001</v>
@@ -15483,9 +15494,9 @@
         <v>0.54659199999999997</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:18">
       <c r="A239" s="1" t="s">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="B239" s="5">
         <v>526.48900000000003</v>
@@ -15539,9 +15550,9 @@
         <v>5.7056699999999996</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:18">
       <c r="A240" s="1" t="s">
-        <v>252</v>
+        <v>345</v>
       </c>
       <c r="B240" s="5">
         <v>525.66399999999999</v>
@@ -15595,9 +15606,9 @@
         <v>3.0382500000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:18">
       <c r="A241" s="1" t="s">
-        <v>253</v>
+        <v>127</v>
       </c>
       <c r="B241" s="5">
         <v>527.26</v>
@@ -15651,9 +15662,9 @@
         <v>-2.9677899999999999</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:18">
       <c r="A242" s="1" t="s">
-        <v>254</v>
+        <v>346</v>
       </c>
       <c r="B242" s="5">
         <v>524.803</v>
@@ -15707,9 +15718,9 @@
         <v>-5.81121</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:18">
       <c r="A243" s="1" t="s">
-        <v>255</v>
+        <v>347</v>
       </c>
       <c r="B243" s="5">
         <v>525.66399999999999</v>
@@ -15763,9 +15774,9 @@
         <v>1.05488</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:18">
       <c r="A244" s="1" t="s">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="B244" s="5">
         <v>525.66399999999999</v>
@@ -15819,9 +15830,9 @@
         <v>3.0382500000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:18">
       <c r="A245" s="1" t="s">
-        <v>257</v>
+        <v>348</v>
       </c>
       <c r="B245" s="5">
         <v>524.83100000000002</v>
@@ -15875,9 +15886,9 @@
         <v>-4.1001799999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:18">
       <c r="A246" s="1" t="s">
-        <v>258</v>
+        <v>129</v>
       </c>
       <c r="B246" s="5">
         <v>524.83100000000002</v>
@@ -15931,9 +15942,9 @@
         <v>0.22884299999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:18">
       <c r="A247" s="1" t="s">
-        <v>259</v>
+        <v>130</v>
       </c>
       <c r="B247" s="5">
         <v>524.01499999999999</v>
@@ -15987,9 +15998,9 @@
         <v>3.9807299999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:18">
       <c r="A248" s="1" t="s">
-        <v>260</v>
+        <v>349</v>
       </c>
       <c r="B248" s="5">
         <v>523.15499999999997</v>
@@ -16043,9 +16054,9 @@
         <v>6.1873100000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:18">
       <c r="A249" s="1" t="s">
-        <v>261</v>
+        <v>350</v>
       </c>
       <c r="B249" s="5">
         <v>524.01700000000005</v>
@@ -16099,9 +16110,9 @@
         <v>-2.6924700000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:18">
       <c r="A250" s="1" t="s">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="B250" s="5">
         <v>525.66399999999999</v>
@@ -16155,9 +16166,9 @@
         <v>-1.72546</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:18">
       <c r="A251" s="1" t="s">
-        <v>263</v>
+        <v>351</v>
       </c>
       <c r="B251" s="5">
         <v>523.82399999999996</v>
@@ -16211,9 +16222,9 @@
         <v>-0.87176799999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:18">
       <c r="A252" s="1" t="s">
-        <v>264</v>
+        <v>132</v>
       </c>
       <c r="B252" s="5">
         <v>525.55999999999995</v>
@@ -16267,9 +16278,9 @@
         <v>2.8766500000000002</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:18">
       <c r="A253" s="1" t="s">
-        <v>265</v>
+        <v>133</v>
       </c>
       <c r="B253" s="5">
         <v>523.82399999999996</v>
@@ -16323,9 +16334,9 @@
         <v>-0.87176799999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:18">
       <c r="A254" s="1" t="s">
-        <v>266</v>
+        <v>352</v>
       </c>
       <c r="B254" s="5">
         <v>524.01700000000005</v>
@@ -16379,9 +16390,9 @@
         <v>-1.31497</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:18">
       <c r="A255" s="1" t="s">
-        <v>267</v>
+        <v>353</v>
       </c>
       <c r="B255" s="5">
         <v>523.27099999999996</v>
@@ -16435,9 +16446,9 @@
         <v>3.7585199999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:18">
       <c r="A256" s="1" t="s">
-        <v>268</v>
+        <v>134</v>
       </c>
       <c r="B256" s="5">
         <v>524.01499999999999</v>
@@ -16491,9 +16502,9 @@
         <v>-4.4273300000000004</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:18">
       <c r="A257" s="1" t="s">
-        <v>269</v>
+        <v>354</v>
       </c>
       <c r="B257" s="5">
         <v>522.45399999999995</v>
@@ -16547,9 +16558,9 @@
         <v>6.6700200000000001E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:18">
       <c r="A258" s="1" t="s">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="B258" s="5">
         <v>523.15499999999997</v>
@@ -16603,9 +16614,9 @@
         <v>-0.73897400000000002</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:18">
       <c r="A259" s="1" t="s">
-        <v>271</v>
+        <v>136</v>
       </c>
       <c r="B259" s="5">
         <v>523.15499999999997</v>
@@ -16659,9 +16670,9 @@
         <v>7.0550600000000001</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:18">
       <c r="A260" s="1" t="s">
-        <v>272</v>
+        <v>355</v>
       </c>
       <c r="B260" s="5">
         <v>522.88699999999994</v>
@@ -16715,9 +16726,9 @@
         <v>-8.5458400000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:18">
       <c r="A261" s="1" t="s">
-        <v>273</v>
+        <v>137</v>
       </c>
       <c r="B261" s="5">
         <v>522.34900000000005</v>
@@ -16771,9 +16782,9 @@
         <v>-2.60412</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:18">
       <c r="A262" s="1" t="s">
-        <v>274</v>
+        <v>356</v>
       </c>
       <c r="B262" s="5">
         <v>522.34900000000005</v>
@@ -16827,9 +16838,9 @@
         <v>-4.1651899999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:18">
       <c r="A263" s="1" t="s">
-        <v>275</v>
+        <v>138</v>
       </c>
       <c r="B263" s="5">
         <v>522.50199999999995</v>
@@ -16883,9 +16894,9 @@
         <v>-0.71726500000000004</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:18">
       <c r="A264" s="1" t="s">
-        <v>276</v>
+        <v>357</v>
       </c>
       <c r="B264" s="5">
         <v>521.75900000000001</v>
@@ -16939,9 +16950,9 @@
         <v>0.64060600000000001</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:18">
       <c r="A265" s="1" t="s">
-        <v>277</v>
+        <v>358</v>
       </c>
       <c r="B265" s="5">
         <v>521.08000000000004</v>
@@ -16995,9 +17006,9 @@
         <v>-0.34020600000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:18">
       <c r="A266" s="1" t="s">
-        <v>278</v>
+        <v>139</v>
       </c>
       <c r="B266" s="5">
         <v>521.77099999999996</v>
@@ -17051,9 +17062,9 @@
         <v>-3.1938300000000002</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:18">
       <c r="A267" s="1" t="s">
-        <v>279</v>
+        <v>140</v>
       </c>
       <c r="B267" s="5">
         <v>521.09500000000003</v>
@@ -17107,9 +17118,9 @@
         <v>-7.2153600000000004</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:18">
       <c r="A268" s="1" t="s">
-        <v>280</v>
+        <v>359</v>
       </c>
       <c r="B268" s="5">
         <v>521.08000000000004</v>
@@ -17163,9 +17174,9 @@
         <v>-1.43729</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:18">
       <c r="A269" s="1" t="s">
-        <v>281</v>
+        <v>141</v>
       </c>
       <c r="B269" s="5">
         <v>521.08000000000004</v>
@@ -17219,9 +17230,9 @@
         <v>4.8608000000000002</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:18">
       <c r="A270" s="1" t="s">
-        <v>282</v>
+        <v>360</v>
       </c>
       <c r="B270" s="5">
         <v>520.38900000000001</v>
@@ -17275,9 +17286,9 @@
         <v>-3.2432799999999999</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:18">
       <c r="A271" s="1" t="s">
-        <v>283</v>
+        <v>361</v>
       </c>
       <c r="B271" s="5">
         <v>521.08000000000004</v>
@@ -17331,9 +17342,9 @@
         <v>-3.9916200000000002</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:18">
       <c r="A272" s="1" t="s">
-        <v>284</v>
+        <v>142</v>
       </c>
       <c r="B272" s="5">
         <v>521.09500000000003</v>
@@ -17387,9 +17398,9 @@
         <v>-4.6747199999999998</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:18">
       <c r="A273" s="1" t="s">
-        <v>285</v>
+        <v>362</v>
       </c>
       <c r="B273" s="5">
         <v>521.61300000000006</v>
@@ -17443,9 +17454,9 @@
         <v>1.3135399999999999</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:18">
       <c r="A274" s="1" t="s">
-        <v>286</v>
+        <v>143</v>
       </c>
       <c r="B274" s="5">
         <v>520.75</v>
@@ -17499,9 +17510,9 @@
         <v>-0.95408400000000004</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:18">
       <c r="A275" s="1" t="s">
-        <v>287</v>
+        <v>144</v>
       </c>
       <c r="B275" s="5">
         <v>521.61300000000006</v>
@@ -17555,9 +17566,9 @@
         <v>-0.64236000000000004</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:18">
       <c r="A276" s="1" t="s">
-        <v>288</v>
+        <v>363</v>
       </c>
       <c r="B276" s="5">
         <v>521.99900000000002</v>
@@ -17611,9 +17622,9 @@
         <v>-6.2219499999999996</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:18">
       <c r="A277" s="1" t="s">
-        <v>289</v>
+        <v>145</v>
       </c>
       <c r="B277" s="5">
         <v>522.36</v>
@@ -17667,9 +17678,9 @@
         <v>-2.8182999999999998</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:18">
       <c r="A278" s="1" t="s">
-        <v>290</v>
+        <v>364</v>
       </c>
       <c r="B278" s="5">
         <v>522.83000000000004</v>
@@ -17723,9 +17734,9 @@
         <v>6.5610400000000002</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:18">
       <c r="A279" s="1" t="s">
-        <v>291</v>
+        <v>146</v>
       </c>
       <c r="B279" s="5">
         <v>522.83000000000004</v>
@@ -17779,9 +17790,9 @@
         <v>0.24898700000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:18">
       <c r="A280" s="1" t="s">
-        <v>292</v>
+        <v>365</v>
       </c>
       <c r="B280" s="5">
         <v>524.03</v>
@@ -17835,9 +17846,9 @@
         <v>-1.9167099999999999</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:18">
       <c r="A281" s="1" t="s">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="B281" s="5">
         <v>523.44000000000005</v>
@@ -17891,9 +17902,9 @@
         <v>-2.5459000000000001</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:18">
       <c r="A282" s="1" t="s">
-        <v>294</v>
+        <v>366</v>
       </c>
       <c r="B282" s="5">
         <v>523.44000000000005</v>
@@ -17947,9 +17958,9 @@
         <v>1.2335799999999999</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:18">
       <c r="A283" s="1" t="s">
-        <v>295</v>
+        <v>148</v>
       </c>
       <c r="B283" s="5">
         <v>531.755</v>
@@ -18003,9 +18014,9 @@
         <v>9.5754999999999999</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:18">
       <c r="A284" s="1" t="s">
-        <v>296</v>
+        <v>149</v>
       </c>
       <c r="B284" s="5">
         <v>531.755</v>
@@ -18059,9 +18070,9 @@
         <v>0.52147100000000002</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:18">
       <c r="A285" s="1" t="s">
-        <v>297</v>
+        <v>150</v>
       </c>
       <c r="B285" s="5">
         <v>530.58699999999999</v>
@@ -18115,9 +18126,9 @@
         <v>-1.32995</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:18">
       <c r="A286" s="1" t="s">
-        <v>298</v>
+        <v>151</v>
       </c>
       <c r="B286" s="5">
         <v>530.673</v>
@@ -18171,9 +18182,9 @@
         <v>5.9395499999999997</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:18">
       <c r="A287" s="1" t="s">
-        <v>299</v>
+        <v>152</v>
       </c>
       <c r="B287" s="5">
         <v>529.71799999999996</v>
@@ -18227,9 +18238,9 @@
         <v>1.4196500000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:18">
       <c r="A288" s="1" t="s">
-        <v>300</v>
+        <v>153</v>
       </c>
       <c r="B288" s="5">
         <v>530.25400000000002</v>
@@ -18283,9 +18294,9 @@
         <v>-0.97555499999999995</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:18">
       <c r="A289" s="1" t="s">
-        <v>301</v>
+        <v>154</v>
       </c>
       <c r="B289" s="5">
         <v>529.29</v>
@@ -18339,9 +18350,9 @@
         <v>-1.65218</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:18">
       <c r="A290" s="1" t="s">
-        <v>302</v>
+        <v>155</v>
       </c>
       <c r="B290" s="5">
         <v>528.34199999999998</v>
@@ -18395,9 +18406,9 @@
         <v>-2.0773299999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:18">
       <c r="A291" s="1" t="s">
-        <v>303</v>
+        <v>156</v>
       </c>
       <c r="B291" s="5">
         <v>529.45299999999997</v>
@@ -18451,9 +18462,9 @@
         <v>1.8855299999999999</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:18">
       <c r="A292" s="1" t="s">
-        <v>304</v>
+        <v>157</v>
       </c>
       <c r="B292" s="5">
         <v>528.34199999999998</v>
@@ -18507,9 +18518,9 @@
         <v>1.38941</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:18">
       <c r="A293" s="1" t="s">
-        <v>305</v>
+        <v>158</v>
       </c>
       <c r="B293" s="5">
         <v>528.40099999999995</v>
@@ -18563,9 +18574,9 @@
         <v>5.7553599999999996</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:18">
       <c r="A294" s="1" t="s">
-        <v>306</v>
+        <v>159</v>
       </c>
       <c r="B294" s="5">
         <v>529.04200000000003</v>
@@ -18619,9 +18630,9 @@
         <v>1.20041</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:18">
       <c r="A295" s="1" t="s">
-        <v>307</v>
+        <v>160</v>
       </c>
       <c r="B295" s="5">
         <v>529.78499999999997</v>
@@ -18675,9 +18686,9 @@
         <v>-2.2605200000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:18">
       <c r="A296" s="1" t="s">
-        <v>308</v>
+        <v>161</v>
       </c>
       <c r="B296" s="5">
         <v>530.62199999999996</v>
@@ -18731,9 +18742,9 @@
         <v>-2.0862500000000002</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:18">
       <c r="A297" s="1" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="B297" s="5">
         <v>530.62199999999996</v>
@@ -18787,9 +18798,9 @@
         <v>-1.3318300000000001</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:18">
       <c r="A298" s="1" t="s">
-        <v>310</v>
+        <v>163</v>
       </c>
       <c r="B298" s="5">
         <v>531.23400000000004</v>
@@ -18843,9 +18854,9 @@
         <v>1.24336</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:18">
       <c r="A299" s="1" t="s">
-        <v>311</v>
+        <v>164</v>
       </c>
       <c r="B299" s="5">
         <v>530.37699999999995</v>
@@ -18899,9 +18910,9 @@
         <v>-4.0043800000000003</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:18">
       <c r="A300" s="1" t="s">
-        <v>312</v>
+        <v>165</v>
       </c>
       <c r="B300" s="5">
         <v>530.13499999999999</v>
@@ -18955,9 +18966,9 @@
         <v>-0.75680000000000003</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:18">
       <c r="A301" s="1" t="s">
-        <v>313</v>
+        <v>166</v>
       </c>
       <c r="B301" s="5">
         <v>530.53899999999999</v>
@@ -19011,9 +19022,9 @@
         <v>0.141682</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:18">
       <c r="A302" s="1" t="s">
-        <v>314</v>
+        <v>367</v>
       </c>
       <c r="B302" s="5">
         <v>532.11099999999999</v>
@@ -19067,9 +19078,9 @@
         <v>3.5298400000000001</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:18">
       <c r="A303" s="1" t="s">
-        <v>315</v>
+        <v>368</v>
       </c>
       <c r="B303" s="5">
         <v>532.11099999999999</v>
@@ -19123,9 +19134,9 @@
         <v>1.3932199999999999</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:18">
       <c r="A304" s="1" t="s">
-        <v>316</v>
+        <v>369</v>
       </c>
       <c r="B304" s="5">
         <v>532.6</v>
@@ -19179,9 +19190,9 @@
         <v>-3.1629299999999998</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:18">
       <c r="A305" s="1" t="s">
-        <v>317</v>
+        <v>370</v>
       </c>
       <c r="B305" s="5">
         <v>532.6</v>
@@ -19235,9 +19246,9 @@
         <v>3.5441799999999999</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:18">
       <c r="A306" s="1" t="s">
-        <v>318</v>
+        <v>371</v>
       </c>
       <c r="B306" s="5">
         <v>533.58399999999995</v>
@@ -19291,9 +19302,9 @@
         <v>-5.4211200000000002</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:18">
       <c r="A307" s="1" t="s">
-        <v>319</v>
+        <v>167</v>
       </c>
       <c r="B307" s="5">
         <v>533.58399999999995</v>
@@ -19347,9 +19358,9 @@
         <v>-0.28631299999999998</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:18">
       <c r="A308" s="1" t="s">
-        <v>320</v>
+        <v>168</v>
       </c>
       <c r="B308" s="5">
         <v>532.6</v>
@@ -19403,9 +19414,9 @@
         <v>3.5441799999999999</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:18">
       <c r="A309" s="1" t="s">
-        <v>321</v>
+        <v>169</v>
       </c>
       <c r="B309" s="5">
         <v>533.12900000000002</v>
@@ -19459,9 +19470,9 @@
         <v>6.4363799999999998</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:18">
       <c r="A310" s="1" t="s">
-        <v>322</v>
+        <v>170</v>
       </c>
       <c r="B310" s="5">
         <v>532.6</v>
@@ -19515,9 +19526,9 @@
         <v>0.575874</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:18">
       <c r="A311" s="1" t="s">
-        <v>323</v>
+        <v>171</v>
       </c>
       <c r="B311" s="5">
         <v>531.32000000000005</v>
@@ -19571,9 +19582,9 @@
         <v>3.19902</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:18">
       <c r="A312" s="1" t="s">
-        <v>324</v>
+        <v>172</v>
       </c>
       <c r="B312" s="5">
         <v>530.58199999999999</v>
@@ -19627,9 +19638,9 @@
         <v>2.50752</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:18">
       <c r="A313" s="1" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="B313" s="5">
         <v>530.58199999999999</v>
@@ -19683,9 +19694,9 @@
         <v>2.63436</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:18">
       <c r="A314" s="1" t="s">
-        <v>326</v>
+        <v>173</v>
       </c>
       <c r="B314" s="5">
         <v>528.875</v>
@@ -19739,9 +19750,9 @@
         <v>4.94564</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:18">
       <c r="A315" s="1" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="B315" s="5">
         <v>528.01499999999999</v>
@@ -19795,9 +19806,9 @@
         <v>-1.7028799999999999</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:18">
       <c r="A316" s="1" t="s">
-        <v>328</v>
+        <v>174</v>
       </c>
       <c r="B316" s="5">
         <v>527.26</v>
@@ -19851,9 +19862,9 @@
         <v>0.87809099999999995</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:18">
       <c r="A317" s="1" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="B317" s="5">
         <v>527.18799999999999</v>
@@ -19907,9 +19918,9 @@
         <v>4.5979700000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:18">
       <c r="A318" s="1" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="B318" s="5">
         <v>528.81299999999999</v>
@@ -19963,9 +19974,9 @@
         <v>-4.4168200000000004</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:18">
       <c r="A319" s="1" t="s">
-        <v>331</v>
+        <v>175</v>
       </c>
       <c r="B319" s="5">
         <v>528.81299999999999</v>
@@ -20019,9 +20030,9 @@
         <v>-4.4168200000000004</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:18">
       <c r="A320" s="1" t="s">
-        <v>332</v>
+        <v>176</v>
       </c>
       <c r="B320" s="5">
         <v>527.18799999999999</v>
@@ -20075,9 +20086,9 @@
         <v>-0.353854</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:18">
       <c r="A321" s="1" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="B321" s="5">
         <v>527.18799999999999</v>
@@ -20131,9 +20142,9 @@
         <v>-1.42075</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:18">
       <c r="A322" s="1" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="B322" s="5">
         <v>525.55999999999995</v>
@@ -20187,9 +20198,9 @@
         <v>0.33462799999999998</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:18">
       <c r="A323" s="1" t="s">
-        <v>335</v>
+        <v>177</v>
       </c>
       <c r="B323" s="5">
         <v>526.25599999999997</v>
@@ -20243,9 +20254,9 @@
         <v>0.437141</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:18">
       <c r="A324" s="1" t="s">
-        <v>336</v>
+        <v>178</v>
       </c>
       <c r="B324" s="5">
         <v>525.16399999999999</v>
@@ -20299,9 +20310,9 @@
         <v>9.7169600000000002E-3</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:18">
       <c r="A325" s="1" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="B325" s="5">
         <v>524.50900000000001</v>
@@ -20355,9 +20366,9 @@
         <v>0.28156100000000001</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:18">
       <c r="A326" s="1" t="s">
-        <v>338</v>
+        <v>179</v>
       </c>
       <c r="B326" s="5">
         <v>524.50900000000001</v>
@@ -20411,9 +20422,9 @@
         <v>-3.76084</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:18">
       <c r="A327" s="1" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="B327" s="5">
         <v>524.03</v>
@@ -20467,9 +20478,9 @@
         <v>-3.3267899999999999</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:18">
       <c r="A328" s="1" t="s">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="B328" s="5">
         <v>524.03</v>
@@ -20523,9 +20534,9 @@
         <v>3.87269</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:18">
       <c r="A329" s="1" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="B329" s="5">
         <v>524.68499999999995</v>
@@ -20579,9 +20590,9 @@
         <v>2.11334</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:18">
       <c r="A330" s="1" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="B330" s="5">
         <v>524.68499999999995</v>
@@ -20635,9 +20646,9 @@
         <v>2.6809099999999999</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:18">
       <c r="A331" s="1" t="s">
-        <v>343</v>
+        <v>181</v>
       </c>
       <c r="B331" s="5">
         <v>524.68499999999995</v>
@@ -20691,9 +20702,9 @@
         <v>-0.95717099999999999</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:18">
       <c r="A332" s="1" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="B332" s="5">
         <v>525.78700000000003</v>
@@ -20747,9 +20758,9 @@
         <v>-7.2483000000000004</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:18">
       <c r="A333" s="1" t="s">
-        <v>345</v>
+        <v>182</v>
       </c>
       <c r="B333" s="5">
         <v>526.46699999999998</v>
@@ -20803,9 +20814,9 @@
         <v>2.1568200000000002</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:18">
       <c r="A334" s="1" t="s">
-        <v>346</v>
+        <v>183</v>
       </c>
       <c r="B334" s="5">
         <v>526.89200000000005</v>
@@ -20859,9 +20870,9 @@
         <v>-5.0892299999999997</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:18">
       <c r="A335" s="1" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="B335" s="5">
         <v>525.16399999999999</v>
@@ -20915,9 +20926,9 @@
         <v>9.7169600000000002E-3</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:18">
       <c r="A336" s="1" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="B336" s="5">
         <v>533.12900000000002</v>
@@ -20971,9 +20982,9 @@
         <v>5.9617199999999997</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:18">
       <c r="A337" s="1" t="s">
-        <v>349</v>
+        <v>184</v>
       </c>
       <c r="B337" s="5">
         <v>533.12900000000002</v>
@@ -21027,9 +21038,9 @@
         <v>-6.1211000000000002</v>
       </c>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:18">
       <c r="A338" s="1" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="B338" s="5">
         <v>534.30799999999999</v>
@@ -21083,9 +21094,9 @@
         <v>3.9279099999999998</v>
       </c>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:18">
       <c r="A339" s="1" t="s">
-        <v>351</v>
+        <v>185</v>
       </c>
       <c r="B339" s="5">
         <v>533.12900000000002</v>
@@ -21139,9 +21150,9 @@
         <v>-1.8212900000000001</v>
       </c>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:18">
       <c r="A340" s="1" t="s">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="B340" s="5">
         <v>534.30799999999999</v>
@@ -21195,9 +21206,9 @@
         <v>7.5526099999999996</v>
       </c>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:18">
       <c r="A341" s="1" t="s">
-        <v>353</v>
+        <v>186</v>
       </c>
       <c r="B341" s="5">
         <v>534.30799999999999</v>
@@ -21251,9 +21262,9 @@
         <v>14.4856</v>
       </c>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:18">
       <c r="A342" s="1" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="B342" s="5">
         <v>534.673</v>
@@ -21307,9 +21318,9 @@
         <v>-3.0046499999999998</v>
       </c>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:18">
       <c r="A343" s="1" t="s">
-        <v>355</v>
+        <v>187</v>
       </c>
       <c r="B343" s="5">
         <v>533.98900000000003</v>
@@ -21363,9 +21374,9 @@
         <v>-2.31745</v>
       </c>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:18">
       <c r="A344" s="1" t="s">
-        <v>356</v>
+        <v>388</v>
       </c>
       <c r="B344" s="5">
         <v>534.86599999999999</v>
@@ -21419,9 +21430,9 @@
         <v>4.5652900000000001</v>
       </c>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:18">
       <c r="A345" s="1" t="s">
-        <v>357</v>
+        <v>389</v>
       </c>
       <c r="B345" s="5">
         <v>534.86599999999999</v>
@@ -21475,9 +21486,9 @@
         <v>7.7512299999999996</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:18">
       <c r="A346" s="1" t="s">
-        <v>358</v>
+        <v>188</v>
       </c>
       <c r="B346" s="5">
         <v>535.77300000000002</v>
@@ -21531,9 +21542,9 @@
         <v>-6.4696600000000002</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:18">
       <c r="A347" s="1" t="s">
-        <v>359</v>
+        <v>189</v>
       </c>
       <c r="B347" s="5">
         <v>535.49900000000002</v>
@@ -21587,9 +21598,9 @@
         <v>-9.9750500000000006E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:18">
       <c r="A348" s="1" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="B348" s="5">
         <v>537.053</v>
@@ -21643,9 +21654,9 @@
         <v>5.6064299999999996</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:18">
       <c r="A349" s="1" t="s">
-        <v>361</v>
+        <v>190</v>
       </c>
       <c r="B349" s="5">
         <v>536.85199999999998</v>
@@ -21699,9 +21710,9 @@
         <v>0.664215</v>
       </c>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:18">
       <c r="A350" s="1" t="s">
-        <v>362</v>
+        <v>191</v>
       </c>
       <c r="B350" s="5">
         <v>535.18600000000004</v>
@@ -21755,9 +21766,9 @@
         <v>-1.34758</v>
       </c>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:18">
       <c r="A351" s="1" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="B351" s="5">
         <v>534.83100000000002</v>
@@ -21811,9 +21822,9 @@
         <v>1.8354699999999999</v>
       </c>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:18">
       <c r="A352" s="1" t="s">
-        <v>364</v>
+        <v>192</v>
       </c>
       <c r="B352" s="5">
         <v>536.44600000000003</v>
@@ -21867,9 +21878,9 @@
         <v>-2.3671700000000002</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:18">
       <c r="A353" s="1" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="B353" s="5">
         <v>534.83100000000002</v>
@@ -21923,9 +21934,9 @@
         <v>4.2779999999999996</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:18">
       <c r="A354" s="1" t="s">
-        <v>366</v>
+        <v>193</v>
       </c>
       <c r="B354" s="5">
         <v>535.18600000000004</v>
@@ -21979,9 +21990,9 @@
         <v>-5.5741100000000001</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:18">
       <c r="A355" s="1" t="s">
-        <v>367</v>
+        <v>194</v>
       </c>
       <c r="B355" s="5">
         <v>533.93499999999995</v>
@@ -22035,9 +22046,9 @@
         <v>3.7405599999999999</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:18">
       <c r="A356" s="1" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="B356" s="5">
         <v>533.93499999999995</v>
@@ -22091,9 +22102,9 @@
         <v>10.1275</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:18">
       <c r="A357" s="1" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="B357" s="5">
         <v>533.61</v>
@@ -22147,9 +22158,9 @@
         <v>-2.1044700000000001</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:18">
       <c r="A358" s="1" t="s">
-        <v>370</v>
+        <v>195</v>
       </c>
       <c r="B358" s="5">
         <v>533.30799999999999</v>
@@ -22203,9 +22214,9 @@
         <v>0.83578799999999998</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:18">
       <c r="A359" s="1" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="B359" s="5">
         <v>534.83100000000002</v>
@@ -22259,9 +22270,9 @@
         <v>-1.4916</v>
       </c>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:18">
       <c r="A360" s="1" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="B360" s="5">
         <v>535.77700000000004</v>
@@ -22315,9 +22326,9 @@
         <v>5.83582</v>
       </c>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:18">
       <c r="A361" s="1" t="s">
-        <v>373</v>
+        <v>196</v>
       </c>
       <c r="B361" s="5">
         <v>533.30799999999999</v>
@@ -22371,9 +22382,9 @@
         <v>5.4573299999999998</v>
       </c>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:18">
       <c r="A362" s="1" t="s">
-        <v>374</v>
+        <v>197</v>
       </c>
       <c r="B362" s="5">
         <v>532.38400000000001</v>
@@ -22427,9 +22438,9 @@
         <v>-3.6457199999999998</v>
       </c>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:18">
       <c r="A363" s="1" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="B363" s="5">
         <v>532.73099999999999</v>
@@ -22483,9 +22494,9 @@
         <v>-3.0121000000000002</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:18">
       <c r="A364" s="1" t="s">
-        <v>376</v>
+        <v>198</v>
       </c>
       <c r="B364" s="5">
         <v>533.61</v>
@@ -22539,9 +22550,9 @@
         <v>-3.5556399999999999</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:18">
       <c r="A365" s="1" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="B365" s="5">
         <v>532.01900000000001</v>
@@ -22595,9 +22606,9 @@
         <v>-1.1757299999999999</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:18">
       <c r="A366" s="1" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="B366" s="5">
         <v>532.01900000000001</v>
@@ -22651,9 +22662,9 @@
         <v>1.0429299999999999</v>
       </c>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:18">
       <c r="A367" s="1" t="s">
-        <v>379</v>
+        <v>199</v>
       </c>
       <c r="B367" s="5">
         <v>532.38400000000001</v>
@@ -22707,9 +22718,9 @@
         <v>1.9910300000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:18">
       <c r="A368" s="1" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="B368" s="5">
         <v>532.38400000000001</v>
@@ -22763,9 +22774,9 @@
         <v>-2.3873199999999999</v>
       </c>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:18">
       <c r="A369" s="1" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="B369" s="5">
         <v>532.38400000000001</v>
@@ -22819,9 +22830,9 @@
         <v>-9.0482800000000001</v>
       </c>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:18">
       <c r="A370" s="1" t="s">
-        <v>382</v>
+        <v>200</v>
       </c>
       <c r="B370" s="5">
         <v>531.43499999999995</v>
@@ -22875,9 +22886,9 @@
         <v>5.7661800000000003</v>
       </c>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:18">
       <c r="A371" s="1" t="s">
-        <v>383</v>
+        <v>201</v>
       </c>
       <c r="B371" s="5">
         <v>531.43499999999995</v>
@@ -22931,9 +22942,9 @@
         <v>-5.0324099999999996</v>
       </c>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:18">
       <c r="A372" s="1" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="B372" s="5">
         <v>530.50599999999997</v>
@@ -22987,9 +22998,9 @@
         <v>-5.0267900000000001</v>
       </c>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:18">
       <c r="A373" s="1" t="s">
-        <v>385</v>
+        <v>202</v>
       </c>
       <c r="B373" s="5">
         <v>529.70100000000002</v>
@@ -23043,9 +23054,9 @@
         <v>3.82639</v>
       </c>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:18">
       <c r="A374" s="1" t="s">
-        <v>386</v>
+        <v>203</v>
       </c>
       <c r="B374" s="5">
         <v>530.50599999999997</v>
@@ -23099,9 +23110,9 @@
         <v>-7.8463000000000003</v>
       </c>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:18">
       <c r="A375" s="1" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="B375" s="5">
         <v>531.43499999999995</v>
@@ -23155,9 +23166,9 @@
         <v>-0.40886699999999998</v>
       </c>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:18">
       <c r="A376" s="1" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="B376" s="5">
         <v>531.851</v>
@@ -23211,9 +23222,9 @@
         <v>-0.18915299999999999</v>
       </c>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:18">
       <c r="A377" s="1" t="s">
-        <v>389</v>
+        <v>204</v>
       </c>
       <c r="B377" s="5">
         <v>530.75199999999995</v>
@@ -23267,9 +23278,9 @@
         <v>-0.85187299999999999</v>
       </c>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:18">
       <c r="A378" s="1" t="s">
-        <v>390</v>
+        <v>205</v>
       </c>
       <c r="B378" s="5">
         <v>530.75199999999995</v>
@@ -23323,9 +23334,9 @@
         <v>2.4155600000000002</v>
       </c>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:18">
       <c r="A379" s="1" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="B379" s="5">
         <v>529.70100000000002</v>
@@ -23379,9 +23390,9 @@
         <v>-2.2842500000000001</v>
       </c>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:18">
       <c r="A380" s="1" t="s">
-        <v>392</v>
+        <v>206</v>
       </c>
       <c r="B380" s="5">
         <v>529.70100000000002</v>
@@ -23435,9 +23446,9 @@
         <v>-2.2510400000000002</v>
       </c>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:18">
       <c r="A381" s="1" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="B381" s="5">
         <v>528.81299999999999</v>
@@ -23491,9 +23502,9 @@
         <v>-2.37703</v>
       </c>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:18">
       <c r="A382" s="1" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="B382" s="5">
         <v>528.81299999999999</v>
@@ -23547,9 +23558,9 @@
         <v>-2.9172899999999999</v>
       </c>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:18">
       <c r="A383" s="1" t="s">
-        <v>395</v>
+        <v>207</v>
       </c>
       <c r="B383" s="5">
         <v>527.91499999999996</v>
@@ -23603,9 +23614,9 @@
         <v>-2.9190200000000002</v>
       </c>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:18">
       <c r="A384" s="1" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="B384" s="5">
         <v>526.89200000000005</v>
@@ -23659,9 +23670,9 @@
         <v>-2.8962699999999999</v>
       </c>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:18">
       <c r="A385" s="1" t="s">
-        <v>397</v>
+        <v>208</v>
       </c>
       <c r="B385" s="5">
         <v>526.89200000000005</v>
@@ -23715,9 +23726,9 @@
         <v>-2.8962699999999999</v>
       </c>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:18">
       <c r="A386" s="1" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="B386" s="5">
         <v>526.89200000000005</v>
@@ -23771,9 +23782,9 @@
         <v>2.29315E-2</v>
       </c>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:18">
       <c r="A387" s="1" t="s">
-        <v>399</v>
+        <v>209</v>
       </c>
       <c r="B387" s="5">
         <v>526.89200000000005</v>
@@ -23827,9 +23838,9 @@
         <v>-4.2969900000000001</v>
       </c>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:18">
       <c r="A388" s="1" t="s">
-        <v>400</v>
+        <v>210</v>
       </c>
       <c r="B388" s="5">
         <v>527.20899999999995</v>
@@ -23883,9 +23894,9 @@
         <v>2.17638</v>
       </c>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:18">
       <c r="A389" s="1" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B389" s="5">
         <v>528.39300000000003</v>
@@ -23939,9 +23950,9 @@
         <v>3.9791300000000001</v>
       </c>
     </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:18">
       <c r="A390" s="1" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="B390" s="5">
         <v>529.43799999999999</v>
@@ -23995,9 +24006,9 @@
         <v>3.0519799999999999</v>
       </c>
     </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:18">
       <c r="A391" s="1" t="s">
-        <v>403</v>
+        <v>211</v>
       </c>
       <c r="B391" s="5">
         <v>530.84</v>
@@ -24051,9 +24062,9 @@
         <v>3.6097299999999999</v>
       </c>
     </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:18">
       <c r="A392" s="1" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="B392" s="5">
         <v>526.46699999999998</v>
@@ -24107,9 +24118,9 @@
         <v>0.46933200000000003</v>
       </c>
     </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:18">
       <c r="A393" s="1" t="s">
-        <v>405</v>
+        <v>212</v>
       </c>
       <c r="B393" s="5">
         <v>526.31600000000003</v>
@@ -24163,9 +24174,9 @@
         <v>-3.8725000000000001</v>
       </c>
     </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:18">
       <c r="A394" s="1" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="B394" s="5">
         <v>526.31600000000003</v>
@@ -24219,9 +24230,9 @@
         <v>-0.135683</v>
       </c>
     </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:18">
       <c r="A395" s="1" t="s">
-        <v>407</v>
+        <v>213</v>
       </c>
       <c r="B395" s="5">
         <v>525.40899999999999</v>
@@ -24275,9 +24286,9 @@
         <v>-1.5101599999999999</v>
       </c>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:18">
       <c r="A396" s="1" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B396" s="5">
         <v>527.298</v>
@@ -24331,9 +24342,9 @@
         <v>-4.5666200000000003</v>
       </c>
     </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:18">
       <c r="A397" s="1" t="s">
-        <v>409</v>
+        <v>214</v>
       </c>
       <c r="B397" s="5">
         <v>526.31600000000003</v>
@@ -24387,9 +24398,9 @@
         <v>4.4220199999999998</v>
       </c>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:18">
       <c r="A398" s="1" t="s">
-        <v>410</v>
+        <v>215</v>
       </c>
       <c r="B398" s="5">
         <v>531.81799999999998</v>
@@ -24443,9 +24454,9 @@
         <v>-5.8810900000000004</v>
       </c>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:18">
       <c r="A399" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B399" s="5">
         <v>532.80600000000004</v>
@@ -24499,9 +24510,9 @@
         <v>-9.64588</v>
       </c>
     </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:18">
       <c r="A400" s="1" t="s">
-        <v>412</v>
+        <v>216</v>
       </c>
       <c r="B400" s="5">
         <v>533.78499999999997</v>
@@ -24555,9 +24566,9 @@
         <v>2.1735600000000002</v>
       </c>
     </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:18">
       <c r="A401" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B401" s="5">
         <v>534.97400000000005</v>
